--- a/Godigio Design Document.xlsx
+++ b/Godigio Design Document.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="214" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="214" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fanhub 0.5" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Fanhub" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Eventful Data Flow" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="MVC Functions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Fanhub" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Eventful Data Flow" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -29,7 +30,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser= null</t>
         </r>
@@ -42,7 +42,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Note: A user can only like a post once.  Version 2.0 will have like and dislike buttons.
 May want to have the ability to like and dislike a post.
@@ -57,7 +56,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete is disabled if userpage and loggedinuser not the same.</t>
         </r>
@@ -70,7 +68,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser = null</t>
         </r>
@@ -83,7 +80,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete comment is disabled unless userpage = loggedinuser or loggedinuser = commentuser
 </t>
@@ -95,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="446">
   <si>
     <t>Fanhub Model View Controller (MVC) Document</t>
   </si>
@@ -319,38 +315,734 @@
     <t>getPosts(userid, callback)</t>
   </si>
   <si>
-    <t>getUsersPosts.php</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT</t>
-    </r>
-    <r>
-      <rPr>
+    <t>getPosts.php</t>
+  </si>
+  <si>
+    <t>SELECT Posts.id AS postid, Users.id AS userid, Users.image AS userimage, Users.name AS username, text, post_shared, Posts.image AS postimage FROM Posts INNER JOIN Users ON Posts.user = Users.id WHERE user = [user]</t>
+  </si>
+  <si>
+    <t>Postcount (&lt;-Posts)</t>
+  </si>
+  <si>
+    <t>getUsersPosts(userpage)</t>
+  </si>
+  <si>
+    <t>Post_list (&lt;-Posts)</t>
+  </si>
+  <si>
+    <t>getPosts(userpage)</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `Post` (</t>
+  </si>
+  <si>
+    <t>For each Post</t>
+  </si>
+  <si>
+    <t>getTimeline(userpage)</t>
+  </si>
+  <si>
+    <t>getTimeline(userid, callback)</t>
+  </si>
+  <si>
+    <t>getTimeline.php</t>
+  </si>
+  <si>
+    <t>SELECT id, Users.id AS userid, Users.image AS userimage, Users.name AS username, text, post_shared, image FROM Posts INNER JOIN USERS ON Posts.user = Users.id WHERE user = [user] OR user IN SELECT fanof FROM FanMatrix WHERE fan = [user]</t>
+  </si>
+  <si>
+    <t>Text&lt;-Post.Text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>`text` varchar(1000) NOT NULL,</t>
+  </si>
+  <si>
+    <t>Fanlist</t>
+  </si>
+  <si>
+    <t>Image&lt;-Post.Image</t>
+  </si>
+  <si>
+    <t>getComments(postid, callback)</t>
+  </si>
+  <si>
+    <t>getcomments.php</t>
+  </si>
+  <si>
+    <t>SELECT id, text, name, image FROM Comments INNER JOIN Users ON Comments.user = User.id WHERE post = [post]</t>
+  </si>
+  <si>
+    <t>user (user:id)</t>
+  </si>
+  <si>
+    <t>`user` int(11) ,</t>
+  </si>
+  <si>
+    <t>list of fans (&lt;-Fanmatrix&lt;-&gt;User)</t>
+  </si>
+  <si>
+    <t>SharedLink&lt;-Post.Shared</t>
+  </si>
+  <si>
+    <t>shared (id)</t>
+  </si>
+  <si>
+    <t>`post_shared` int(11)  ALLOW NULL,</t>
+  </si>
+  <si>
+    <t>Shares&lt;-Posts&lt;-&gt;Shares</t>
+  </si>
+  <si>
+    <t>getShareCount(postid)</t>
+  </si>
+  <si>
+    <t>getLikes(postid, callback)</t>
+  </si>
+  <si>
+    <t>getlikes.php</t>
+  </si>
+  <si>
+    <t>SELECT user FROM Likes WHERE post = [post]</t>
+  </si>
+  <si>
+    <t>`image` int(40) ALLOW NULL,</t>
+  </si>
+  <si>
+    <t>Share (-&gt;Posts)</t>
+  </si>
+  <si>
+    <t>share(postid, loggedinuser)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (`ID`)</t>
+  </si>
+  <si>
+    <t>Likes&lt;-Posts&lt;-&gt;Likes</t>
+  </si>
+  <si>
+    <t>getLikes(postid)</t>
+  </si>
+  <si>
+    <t>putPost(formdata, callback)</t>
+  </si>
+  <si>
+    <t>putpost.php</t>
+  </si>
+  <si>
+    <t>INSERT INTO Posts(text, user, image, shared)</t>
+  </si>
+  <si>
+    <t>Like (&lt;-Likes-&gt;)</t>
+  </si>
+  <si>
+    <t>like(postid, loggedinuser)</t>
+  </si>
+  <si>
+    <t>Fanof list</t>
+  </si>
+  <si>
+    <t>Delete (&lt;-User, -&gt;Posts)</t>
+  </si>
+  <si>
+    <t>deletePost(postid)</t>
+  </si>
+  <si>
+    <t>deletePost(formdata, callback)</t>
+  </si>
+  <si>
+    <t>deletepost.php</t>
+  </si>
+  <si>
+    <t>DELETE FROM Posts WHERE id = [post]</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `Likes` (</t>
+  </si>
+  <si>
+    <t>list of fanofs (&lt;-Fanmatrix&lt;-&gt;User)</t>
+  </si>
+  <si>
+    <t>Comments (&lt;-Comments)</t>
+  </si>
+  <si>
+    <t>getCommentCount(postid)</t>
+  </si>
+  <si>
+    <t>Comment (-&gt;Comments)</t>
+  </si>
+  <si>
+    <t>putComment(formdata, callback)</t>
+  </si>
+  <si>
+    <t>putcomment.php</t>
+  </si>
+  <si>
+    <t>INSERT INTO Comments(text, post, user)</t>
+  </si>
+  <si>
+    <t>post (posts:id)</t>
+  </si>
+  <si>
+    <t>`post` int(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t>`user` int(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t>Comment Form</t>
+  </si>
+  <si>
+    <t>postComment(logginduser, text)</t>
+  </si>
+  <si>
+    <t>deleteComment(formdata, callback)</t>
+  </si>
+  <si>
+    <t>deletecomment.php</t>
+  </si>
+  <si>
+    <t>DELETE FROM Comments WHERE id = [comment]</t>
+  </si>
+  <si>
+    <t>likedislike</t>
+  </si>
+  <si>
+    <t>`like_dislike` tinyint(4) NOT NULL,</t>
+  </si>
+  <si>
+    <t>Text (-&gt;Comments)</t>
+  </si>
+  <si>
+    <t>addUser(formdata, callback)</t>
+  </si>
+  <si>
+    <t>adduser.php</t>
+  </si>
+  <si>
+    <t>INSERT INTO Users(name, email, password)</t>
+  </si>
+  <si>
+    <t>Comment List (&lt;-Comments)</t>
+  </si>
+  <si>
+    <t>getComments(postid)</t>
+  </si>
+  <si>
+    <t>For each Comment</t>
+  </si>
+  <si>
+    <t>addLike(formdata, callback)</t>
+  </si>
+  <si>
+    <t>addlike.php</t>
+  </si>
+  <si>
+    <t>INSERT INTO Likes(user, post, like_dislike)</t>
+  </si>
+  <si>
+    <t>FanMatrix</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `FanMatrix` (</t>
+  </si>
+  <si>
+    <t>Text&lt;-Comment.Text</t>
+  </si>
+  <si>
+    <t>Name&lt;-User.Name</t>
+  </si>
+  <si>
+    <t>deleteLike(formdata, callback)</t>
+  </si>
+  <si>
+    <t>deletelike.php</t>
+  </si>
+  <si>
+    <t>DELETE FROM Likes WHERE user = [user] AND post = [post]</t>
+  </si>
+  <si>
+    <t>fan (user:id)</t>
+  </si>
+  <si>
+    <t>`fan` int(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>Picture&lt;-User.Picture</t>
+  </si>
+  <si>
+    <t>fanof (user:id)</t>
+  </si>
+  <si>
+    <t>`fanof` int(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>login.html (login.js)</t>
+  </si>
+  <si>
+    <t>Delete (-&gt;Comments)</t>
+  </si>
+  <si>
+    <t>deleteComment(commentid)</t>
+  </si>
+  <si>
+    <t>Login Form</t>
+  </si>
+  <si>
+    <t>login()</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>logout()</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `Comments` (</t>
+  </si>
+  <si>
+    <t>Password Recovery</t>
+  </si>
+  <si>
+    <t>register.html (register.js)</t>
+  </si>
+  <si>
+    <t>Login(LoginForm)</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>Register Form</t>
+  </si>
+  <si>
+    <t>register()</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `Inbox` (</t>
+  </si>
+  <si>
+    <t>Password_Confirm</t>
+  </si>
+  <si>
+    <t>to (user: id)</t>
+  </si>
+  <si>
+    <t>`to` int(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t>editprofile.html (editprofile.js)</t>
+  </si>
+  <si>
+    <t>from (user: id)</t>
+  </si>
+  <si>
+    <t>`from` int(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t>updateprofile()</t>
+  </si>
+  <si>
+    <t>`text` varchar(1000),</t>
+  </si>
+  <si>
+    <t>UpdateProfile(ProfileForm)</t>
+  </si>
+  <si>
+    <t>updateprofile.php</t>
+  </si>
+  <si>
+    <t>`image` int(11),</t>
+  </si>
+  <si>
+    <t>Total Modules Completed:</t>
+  </si>
+  <si>
+    <t>Modules to Complete</t>
+  </si>
+  <si>
+    <t>Percent Finished</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>#btnFanToggle</t>
+  </si>
+  <si>
+    <t>#divLoginLogout</t>
+  </si>
+  <si>
+    <t>controller.js</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>formcontrols.js</t>
+  </si>
+  <si>
+    <t>Postform (#frmPost)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Posts.id </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">document</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.ready</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">AS</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> id, Users.id </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+  </si>
+  <si>
+    <t>function clearForm(form) {</t>
+  </si>
+  <si>
+    <t>getUserProfile</t>
+  </si>
+  <si>
+    <t>#txtPostMessage (.w3-input)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pageUser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> window.location.search.split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF9B5F9B"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">];</t>
+    </r>
+  </si>
+  <si>
+    <t>fields = form.find(".w3-input");    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> getCurrentUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">callback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>.lblUserName</t>
+  </si>
+  <si>
+    <t>#inputImage (.w3-input)</t>
+  </si>
+  <si>
+    <t>var currentUser;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> numfields </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fields.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getCurrentUser.php"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -359,7 +1051,16 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">AS</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -368,7 +1069,36 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> userid, Users.</t>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>#imgUserImage</t>
+  </si>
+  <si>
+    <t>#btnUploadImage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -377,7 +1107,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">image</t>
+      <t xml:space="preserve">var</t>
     </r>
     <r>
       <rPr>
@@ -386,16 +1116,278 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF9B5F9B"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">numfields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">++)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+  </si>
+  <si>
+    <t>callback(data);})}</t>
+  </si>
+  <si>
+    <t>#lblDOB</t>
+  </si>
+  <si>
+    <t>#btnSubmitPost</t>
+  </si>
+  <si>
+    <t>getCurrentUser(function(user) {</t>
+  </si>
+  <si>
+    <t>// Get current user</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;}</t>
+    </r>
+  </si>
+  <si>
+    <t>#lblLocation</t>
+  </si>
+  <si>
+    <t>currentUser = user;</t>
+  </si>
+  <si>
+    <t>function getProfileData(user, callback){</t>
+  </si>
+  <si>
+    <t>#lblFanCount</t>
+  </si>
+  <si>
+    <t>if(currentUser != “”){</t>
+  </si>
+  <si>
+    <t>// if logged in</t>
+  </si>
+  <si>
+    <t>function populateDiv(div, record) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getProfileData.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">AS</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +1396,123 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> userimage, Users.name </t>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>#lblPostCount</t>
+  </si>
+  <si>
+    <t>All Posts (#btnAllPosts)</t>
+  </si>
+  <si>
+    <t>&lt;.lblUserName&gt; Posts (#btnUsersPosts)</t>
+  </si>
+  <si>
+    <t>if(currentUser == pageUser){</t>
+  </si>
+  <si>
+    <t>// if on home page</t>
+  </si>
+  <si>
+    <t>for(key in record){</t>
+  </si>
+  <si>
+    <t>#lblFanOfCount</t>
+  </si>
+  <si>
+    <t>getAllPosts</t>
+  </si>
+  <si>
+    <t>getUsersPosts</t>
+  </si>
+  <si>
+    <t>$(“#btnEditProfile”).show();</t>
+  </si>
+  <si>
+    <t>// show #btnEditProfile</t>
+  </si>
+  <si>
+    <t>if(startswith(key, “lbl”)){</t>
+  </si>
+  <si>
+    <t>&lt;&lt;#lstAllPosts</t>
+  </si>
+  <si>
+    <t>&lt;&lt;#lstUsersPosts</t>
+  </si>
+  <si>
+    <t>$(“#frmPost”).show();}</t>
+  </si>
+  <si>
+    <t>// show #frmPost</t>
+  </si>
+  <si>
+    <t>div.find(key).html(record[key]);}</t>
+  </si>
+  <si>
+    <t>function getFanList(user, callback){</t>
+  </si>
+  <si>
+    <t>.lblMessage</t>
+  </si>
+  <si>
+    <t>else {</t>
+  </si>
+  <si>
+    <t>// if not on home page</t>
+  </si>
+  <si>
+    <t>if(startswith(key, “img”)){</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getFanList.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -413,7 +1521,16 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">AS</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +1539,108 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> username, text, post_shared, Posts.</t>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>getFanList</t>
+  </si>
+  <si>
+    <t>.imgPost</t>
+  </si>
+  <si>
+    <t>$(“#btnFanToggle”).show()}</t>
+  </si>
+  <si>
+    <t>// show #btnFanToggle</t>
+  </si>
+  <si>
+    <t>div.find(key).attr(“src”, record[key]);)}</t>
+  </si>
+  <si>
+    <t>&lt;&lt;#lstFans</t>
+  </si>
+  <si>
+    <t>.imgUser</t>
+  </si>
+  <si>
+    <t>// if not logged in</t>
+  </si>
+  <si>
+    <t>.imgFanProfile</t>
+  </si>
+  <si>
+    <t>.btnShare</t>
+  </si>
+  <si>
+    <t>$(“#btnLoginLogout”).html(“Log In”);}</t>
+  </si>
+  <si>
+    <t>// set #btnLoginLogout to Login</t>
+  </si>
+  <si>
+    <t>function cloneDiv(selector, record){</t>
+  </si>
+  <si>
+    <t>function getFanOfList(user, callback){</t>
+  </si>
+  <si>
+    <t>.lblFanName&gt;&gt;</t>
+  </si>
+  <si>
+    <t>.lblShareCount</t>
+  </si>
+  <si>
+    <t>var newDiv = $(“#selector”).clone();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getFanOfList.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -431,7 +1649,16 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">image</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -440,6 +1667,101 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>.btnComment</t>
+  </si>
+  <si>
+    <t>getProfileData(userpage, function(profileData){</t>
+  </si>
+  <si>
+    <t>// Get profile data</t>
+  </si>
+  <si>
+    <t>populateDiv(newDiv, record);}</t>
+  </si>
+  <si>
+    <t>.lblCommentCount</t>
+  </si>
+  <si>
+    <t>if(profileData == undefined){</t>
+  </si>
+  <si>
+    <t>// if you can't find profile data for userpage</t>
+  </si>
+  <si>
+    <t>.btnLikePost</t>
+  </si>
+  <si>
+    <t>window.location.replace(“welcome.html”)}</t>
+  </si>
+  <si>
+    <t>// redirect to welcome page</t>
+  </si>
+  <si>
+    <t>function getAllPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>getFanOfList</t>
+  </si>
+  <si>
+    <t>.lblLikeCount</t>
+  </si>
+  <si>
+    <t>populateDiv($(“#divProfile”), profiledata)})</t>
+  </si>
+  <si>
+    <t>// Populate profile div with profile data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getAllPosts.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -449,7 +1771,16 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">FROM</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -458,7 +1789,87 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Posts </t>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&lt;#lstFanOf</t>
+  </si>
+  <si>
+    <t>.lstComments</t>
+  </si>
+  <si>
+    <t>.btnDelete</t>
+  </si>
+  <si>
+    <t>getFanList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>// Get list of fans</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>var fanlist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>function getUsersPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>populateList(“#lstFans”, fanlist, “#tmplFan”);})</t>
+  </si>
+  <si>
+    <t>// Populate fan list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getUsersPost.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -467,7 +1878,16 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">INNER</t>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -476,458 +1896,293 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JOIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> USERS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Posts.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = Users.id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'3'</t>
-    </r>
-  </si>
-  <si>
-    <t>Postcount (&lt;-Posts)</t>
-  </si>
-  <si>
-    <t>getUsersPosts(userpage)</t>
-  </si>
-  <si>
-    <t>Post_list (&lt;-Posts)</t>
-  </si>
-  <si>
-    <t>Posts</t>
-  </si>
-  <si>
-    <t>CREATE TABLE IF NOT EXISTS `Post` (</t>
-  </si>
-  <si>
-    <t>For each Post</t>
-  </si>
-  <si>
-    <t>getTimeline(userpage)</t>
-  </si>
-  <si>
-    <t>getComments(postid, callback)</t>
-  </si>
-  <si>
-    <t>getcomments.php</t>
-  </si>
-  <si>
-    <t>SELECT id, text, name, image FROM Comments INNER JOIN Users ON Comments.user = User.id WHERE post = [post]</t>
-  </si>
-  <si>
-    <t>Text&lt;-Post.Text</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>`text` varchar(1000) NOT NULL,</t>
-  </si>
-  <si>
-    <t>Fanlist</t>
-  </si>
-  <si>
-    <t>Image&lt;-Post.Image</t>
-  </si>
-  <si>
-    <t>getLikes(postid, callback)</t>
-  </si>
-  <si>
-    <t>getlikes.php</t>
-  </si>
-  <si>
-    <t>SELECT user FROM Likes WHERE post = [post]</t>
-  </si>
-  <si>
-    <t>user (user:id)</t>
-  </si>
-  <si>
-    <t>`user` int(11) ,</t>
-  </si>
-  <si>
-    <t>list of fans (&lt;-Fanmatrix&lt;-&gt;User)</t>
-  </si>
-  <si>
-    <t>SharedLink&lt;-Post.Shared</t>
-  </si>
-  <si>
-    <t>shared (id)</t>
-  </si>
-  <si>
-    <t>`post_shared` int(11)  ALLOW NULL,</t>
-  </si>
-  <si>
-    <t>Shares&lt;-Posts&lt;-&gt;Shares</t>
-  </si>
-  <si>
-    <t>getShares(postid)</t>
-  </si>
-  <si>
-    <t>putPost(formdata, callback)</t>
-  </si>
-  <si>
-    <t>putpost.php</t>
-  </si>
-  <si>
-    <t>INSERT INTO Posts(text, user, image, shared)</t>
-  </si>
-  <si>
-    <t>`image` int(40) ALLOW NULL,</t>
-  </si>
-  <si>
-    <t>Share (-&gt;Posts)</t>
-  </si>
-  <si>
-    <t>share(postid, loggedinuser)</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY (`ID`)</t>
-  </si>
-  <si>
-    <t>Likes&lt;-Posts&lt;-&gt;Likes</t>
-  </si>
-  <si>
-    <t>getLikes(postid)</t>
-  </si>
-  <si>
-    <t>deletePost(formdata, callback)</t>
-  </si>
-  <si>
-    <t>deletepost.php</t>
-  </si>
-  <si>
-    <t>DELETE FROM Posts WHERE id = [post]</t>
-  </si>
-  <si>
-    <t>Like (&lt;-Likes-&gt;)</t>
-  </si>
-  <si>
-    <t>like(postid, loggedinuser)</t>
-  </si>
-  <si>
-    <t>Fanof list</t>
-  </si>
-  <si>
-    <t>Delete (&lt;-User, -&gt;Posts)</t>
-  </si>
-  <si>
-    <t>deletePost(postid)</t>
-  </si>
-  <si>
-    <t>putComment(formdata, callback)</t>
-  </si>
-  <si>
-    <t>putcomment.php</t>
-  </si>
-  <si>
-    <t>INSERT INTO Comments(text, post, user)</t>
-  </si>
-  <si>
-    <t>Likes</t>
-  </si>
-  <si>
-    <t>CREATE TABLE IF NOT EXISTS `Likes` (</t>
-  </si>
-  <si>
-    <t>list of fanofs (&lt;-Fanmatrix&lt;-&gt;User)</t>
-  </si>
-  <si>
-    <t>Comments (&lt;-Comments)</t>
-  </si>
-  <si>
-    <t>getComments(postid)</t>
-  </si>
-  <si>
-    <t>Comment (-&gt;Comments)</t>
-  </si>
-  <si>
-    <t>deleteComment(formdata, callback)</t>
-  </si>
-  <si>
-    <t>deletecomment.php</t>
-  </si>
-  <si>
-    <t>DELETE FROM Comments WHERE id = [comment]</t>
-  </si>
-  <si>
-    <t>post (posts:id)</t>
-  </si>
-  <si>
-    <t>`post` int(11) NOT NULL,</t>
-  </si>
-  <si>
-    <t>`user` int(11) NOT NULL,</t>
-  </si>
-  <si>
-    <t>Comment Form</t>
-  </si>
-  <si>
-    <t>postComment(logginduser, text)</t>
-  </si>
-  <si>
-    <t>addUser(formdata, callback)</t>
-  </si>
-  <si>
-    <t>adduser.php</t>
-  </si>
-  <si>
-    <t>INSERT INTO Users(name, email, password)</t>
-  </si>
-  <si>
-    <t>likedislike</t>
-  </si>
-  <si>
-    <t>`like_dislike` tinyint(4) NOT NULL,</t>
-  </si>
-  <si>
-    <t>Text (-&gt;Comments)</t>
-  </si>
-  <si>
-    <t>addLike(formdata, callback)</t>
-  </si>
-  <si>
-    <t>addlike.php</t>
-  </si>
-  <si>
-    <t>INSERT INTO Likes(user, post, like_dislike)</t>
-  </si>
-  <si>
-    <t>Comment List (&lt;-Comments)</t>
-  </si>
-  <si>
-    <t>For each Comment</t>
-  </si>
-  <si>
-    <t>deleteLike(formdata, callback)</t>
-  </si>
-  <si>
-    <t>deletelike.php</t>
-  </si>
-  <si>
-    <t>DELETE FROM Likes WHERE user = [user] AND post = [post]</t>
-  </si>
-  <si>
-    <t>FanMatrix</t>
-  </si>
-  <si>
-    <t>CREATE TABLE IF NOT EXISTS `FanMatrix` (</t>
-  </si>
-  <si>
-    <t>Text&lt;-Comment.Text</t>
-  </si>
-  <si>
-    <t>Name&lt;-User.Name</t>
-  </si>
-  <si>
-    <t>fan (user:id)</t>
-  </si>
-  <si>
-    <t>`fan` int(50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>Picture&lt;-User.Picture</t>
-  </si>
-  <si>
-    <t>fanof (user:id)</t>
-  </si>
-  <si>
-    <t>`fanof` int(50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>login.html (login.js)</t>
-  </si>
-  <si>
-    <t>Delete (-&gt;Comments)</t>
-  </si>
-  <si>
-    <t>deleteComment(commentid)</t>
-  </si>
-  <si>
-    <t>Login Form</t>
-  </si>
-  <si>
-    <t>login()</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>logout()</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>CREATE TABLE IF NOT EXISTS `Comments` (</t>
-  </si>
-  <si>
-    <t>Password Recovery</t>
-  </si>
-  <si>
-    <t>Login(LoginForm)</t>
-  </si>
-  <si>
-    <t>login.php</t>
-  </si>
-  <si>
-    <t>register.html (register.js)</t>
-  </si>
-  <si>
-    <t>Register Form</t>
-  </si>
-  <si>
-    <t>register()</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Inbox</t>
-  </si>
-  <si>
-    <t>CREATE TABLE IF NOT EXISTS `Inbox` (</t>
-  </si>
-  <si>
-    <t>Password_Confirm</t>
-  </si>
-  <si>
-    <t>to (user: id)</t>
-  </si>
-  <si>
-    <t>`to` int(11) NOT NULL,</t>
-  </si>
-  <si>
-    <t>editprofile.html (editprofile.js)</t>
-  </si>
-  <si>
-    <t>UpdateProfile(ProfileForm)</t>
-  </si>
-  <si>
-    <t>updateprofile.php</t>
-  </si>
-  <si>
-    <t>from (user: id)</t>
-  </si>
-  <si>
-    <t>`from` int(11) NOT NULL,</t>
-  </si>
-  <si>
-    <t>updateprofile()</t>
-  </si>
-  <si>
-    <t>`text` varchar(1000),</t>
-  </si>
-  <si>
-    <t>`image` int(11),</t>
-  </si>
-  <si>
-    <t>Total Modules Completed:</t>
-  </si>
-  <si>
-    <t>Modules to Complete</t>
-  </si>
-  <si>
-    <t>Percent Finished</t>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>Commentform (#mdlComment)</t>
+  </si>
+  <si>
+    <t>#txtCommentMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>getFanOfList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>// Get fan of list</t>
+  </si>
+  <si>
+    <t>#btnSubmitComment</t>
+  </si>
+  <si>
+    <t>var fanoflist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>populateList(“#lstFanOf”, fanoflist, “#tmplFan”);})</t>
+  </si>
+  <si>
+    <t>// Populate fan of list</t>
+  </si>
+  <si>
+    <t>Shareform (#mdlShare)</t>
+  </si>
+  <si>
+    <t>#txtShareMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>getAllPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>// Get all posts</t>
+  </si>
+  <si>
+    <t>#btnSubmitShare</t>
+  </si>
+  <si>
+    <t>populatePostList(“#lstAllPosts”, data);})</t>
+  </si>
+  <si>
+    <t>// Populate all posts list</t>
+  </si>
+  <si>
+    <t>getUsersPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>// Get users posts</t>
+  </si>
+  <si>
+    <t>populatePostList(“#lstAllPosts”, data);})})</t>
+  </si>
+  <si>
+    <t>// Populate users posts list</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitPost”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Submit new post</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#frmPost”);</t>
+  </si>
+  <si>
+    <t>putPost(fields, function(newRecord){</t>
+  </si>
+  <si>
+    <t>// Add post to database</t>
+  </si>
+  <si>
+    <t>clearForm(“#frmPost”);</t>
+  </si>
+  <si>
+    <t>// Clear post form</t>
+  </si>
+  <si>
+    <t>newPost = cloneDiv(“#tmplPost”, newRecord);</t>
+  </si>
+  <si>
+    <t>// Add post to timeline</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).prepend(newPost);</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPost”).prepend(newPost) })</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitComment”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Submit new comment</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#mdlComment”);</t>
+  </si>
+  <si>
+    <t>putComment(fields, function(newComment){</t>
+  </si>
+  <si>
+    <t>//  Add comment to database</t>
+  </si>
+  <si>
+    <t>clearForm(“#mdlComment”);</t>
+  </si>
+  <si>
+    <t>// Clear comment modal</t>
+  </si>
+  <si>
+    <t>increment(“.lblCommentCount”);</t>
+  </si>
+  <si>
+    <t>// Increment comment count</t>
+  </si>
+  <si>
+    <t>$(“.lstComments”).prepend(cloneDiv(#tmplComment,newComment));</t>
+  </si>
+  <si>
+    <t>// Add comment to timeline</t>
+  </si>
+  <si>
+    <t>$(“#mdlComment”).hide();}))</t>
+  </si>
+  <si>
+    <t>// Close comment modal</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitShare”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Submit new share</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#mdlShare”);</t>
+  </si>
+  <si>
+    <t>putShare(fields, function(res){</t>
+  </si>
+  <si>
+    <t>// Add share to database</t>
+  </si>
+  <si>
+    <t>clearForm(“#mdlShare”);</t>
+  </si>
+  <si>
+    <t>// Clear share modal</t>
+  </si>
+  <si>
+    <t>increment(.lblShareCount);</t>
+  </si>
+  <si>
+    <t>// Increment share count</t>
+  </si>
+  <si>
+    <t>$(“#mdlShare”).hide() }))</t>
+  </si>
+  <si>
+    <t>// Close share modal</t>
+  </si>
+  <si>
+    <t>$(“#btnShare”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#mdlShare”).show() })</t>
+  </si>
+  <si>
+    <t>// Show share modal</t>
+  </si>
+  <si>
+    <t>$(“#btnComment”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#mdlComment”).show() })</t>
+  </si>
+  <si>
+    <t>// Show comment modal</t>
+  </si>
+  <si>
+    <t>$(“#btnLikePost”).click(function() {</t>
+  </si>
+  <si>
+    <t>toggleLikeTable(currentUser, postId, function(res){</t>
+  </si>
+  <si>
+    <t>// Toggle like in database</t>
+  </si>
+  <si>
+    <t>toggleLikeIcon(this);}))</t>
+  </si>
+  <si>
+    <t>// Toggle like on form</t>
+  </si>
+  <si>
+    <t>$(“#btnAllPosts”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).show();</t>
+  </si>
+  <si>
+    <t>// Show All Posts Tab</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPosts”).hide()})</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).hide();</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPosts”).show();})</t>
+  </si>
+  <si>
+    <t>// Show User's Posts Tab</t>
+  </si>
+  <si>
+    <t>$(“.btnDeletePost”).click(function() {</t>
+  </si>
+  <si>
+    <t>currentPost = findParent(this, “#tmplPost”);</t>
+  </si>
+  <si>
+    <t>// Find current post</t>
+  </si>
+  <si>
+    <t>postid = currentPost.find(“.postid”).val;</t>
+  </si>
+  <si>
+    <t>// Find current post id</t>
+  </si>
+  <si>
+    <t>deletePost(postid, function(){</t>
+  </si>
+  <si>
+    <t>// Delete post from database</t>
+  </si>
+  <si>
+    <t>deleteDiv(currentPost)})})</t>
+  </si>
+  <si>
+    <t>// Delete post from list</t>
+  </si>
+  <si>
+    <t>function populatePostList(data){</t>
+  </si>
+  <si>
+    <t>posts = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>for(var i = 0; i &lt; posts.length; i++){</t>
+  </si>
+  <si>
+    <t>// For all posts</t>
+  </si>
+  <si>
+    <t>newRecord = JSON.parse(posts[i]);</t>
+  </si>
+  <si>
+    <t>// Populate post widget</t>
+  </si>
+  <si>
+    <t>append(.lstAllPosts, newPost);</t>
+  </si>
+  <si>
+    <t>// Append post to post list</t>
+  </si>
+  <si>
+    <t>if(likesPost(currentuser, newPost)){</t>
+  </si>
+  <si>
+    <t>setLike(newPost);}</t>
+  </si>
+  <si>
+    <t>// Set like icon</t>
   </si>
   <si>
     <t>Fanmatrix</t>
@@ -1092,12 +2347,11 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1118,21 +2372,18 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1140,7 +2391,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1148,14 +2398,62 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9.5"/>
+      <color rgb="FF1E7C70"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9.5"/>
+      <color rgb="FF4F76AC"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1170,11 +2468,38 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="9"/>
+      <sz val="9.5"/>
+      <color rgb="FF1E7C70"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF823125"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF9B5F9B"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1182,24 +2507,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +2526,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1303,7 +2637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1380,6 +2714,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1396,7 +2734,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1456,6 +2794,66 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1484,9 +2882,9 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF1E7C70"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9B5F9B"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1506,7 +2904,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1523,7 +2921,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF823125"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1538,10 +2936,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1569,6 +2967,45 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -1607,7 +3044,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
+      <c r="B4" s="0"/>
       <c r="C4" s="8"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
       <c r="M4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1617,6 +3064,10 @@
       <c r="O4" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -1632,6 +3083,11 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
       <c r="M5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1652,6 +3108,7 @@
         <f aca="false">IF(P5="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -1661,9 +3118,22 @@
         <v>19</v>
       </c>
       <c r="C6" s="8"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
       <c r="M6" s="8"/>
       <c r="N6" s="14"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
       <c r="Q6" s="16"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -1675,12 +3145,17 @@
       <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1707,6 +3182,7 @@
         <f aca="false">IF(P7="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -1732,10 +3208,18 @@
         <f aca="false">IF(E8="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
+      <c r="P8" s="0"/>
       <c r="Q8" s="16"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -1761,6 +3245,11 @@
         <f aca="false">IF(E9="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
       <c r="M9" s="14" t="s">
         <v>34</v>
       </c>
@@ -1781,6 +3270,7 @@
         <f aca="false">IF(P9="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -1804,7 +3294,18 @@
         <f aca="false">IF(E10="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
       <c r="Q10" s="16"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -1814,6 +3315,15 @@
         <v>41</v>
       </c>
       <c r="C11" s="8"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
       <c r="M11" s="8" t="s">
         <v>42</v>
       </c>
@@ -1834,6 +3344,7 @@
         <f aca="false">IF(P11="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -1843,10 +3354,22 @@
         <v>46</v>
       </c>
       <c r="C12" s="8"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
       <c r="M12" s="8"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
+      <c r="P12" s="0"/>
       <c r="Q12" s="16"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -1909,6 +3432,7 @@
         <f aca="false">IF(P13="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -1920,13 +3444,24 @@
       <c r="C14" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
       <c r="H14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
       <c r="M14" s="8"/>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
+      <c r="P14" s="0"/>
       <c r="Q14" s="16"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -1936,9 +3471,17 @@
       <c r="C15" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
       <c r="H15" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
       <c r="M15" s="8" t="s">
         <v>63</v>
       </c>
@@ -1959,6 +3502,7 @@
         <f aca="false">IF(P15="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
@@ -1982,12 +3526,21 @@
         <f aca="false">IF(E16="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
       <c r="M16" s="8"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
+      <c r="P16" s="0"/>
       <c r="Q16" s="16"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2011,6 +3564,10 @@
       <c r="H17" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
       <c r="M17" s="8" t="s">
         <v>73</v>
       </c>
@@ -2031,8 +3588,11 @@
         <f aca="false">IF(P17="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
       <c r="C18" s="8" t="s">
         <v>76</v>
       </c>
@@ -2054,7 +3614,7 @@
         <v>78</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
@@ -2070,20 +3630,28 @@
       <c r="M18" s="8"/>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
+      <c r="P18" s="0"/>
       <c r="Q18" s="16"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
       <c r="H19" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>6</v>
@@ -2096,29 +3664,22 @@
         <f aca="false">IF(J19="Todo", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="M19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="N19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="16" t="n">
-        <f aca="false">IF(P19="Done", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="16" t="n">
-        <f aca="false">IF(P19="Todo", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -2127,23 +3688,38 @@
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
       <c r="H20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="Q20" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>68</v>
@@ -2160,59 +3736,82 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
       <c r="M21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="16" t="n">
         <f aca="false">IF(P21="Done", 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="16" t="n">
         <f aca="false">IF(P21="Todo", 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
       <c r="H22" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
       <c r="M22" s="8"/>
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
+      <c r="P22" s="0"/>
       <c r="Q22" s="16"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
       <c r="H23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="20" t="s">
         <v>101</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>6</v>
@@ -2226,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>17</v>
@@ -2245,20 +3844,25 @@
         <f aca="false">IF(P23="Todo", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="S23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="H24" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="22" t="s">
         <v>107</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>6</v>
@@ -2274,21 +3878,28 @@
       <c r="M24" s="8"/>
       <c r="N24" s="14"/>
       <c r="O24" s="15"/>
+      <c r="P24" s="0"/>
       <c r="Q24" s="16"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="8"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>6</v>
@@ -2302,39 +3913,42 @@
         <v>1</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="16" t="n">
         <f aca="false">IF(P25="Done", 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="16" t="n">
         <f aca="false">IF(P25="Todo", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="H26" s="21" t="s">
-        <v>115</v>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>6</v>
@@ -2350,11 +3964,16 @@
       <c r="M26" s="8"/>
       <c r="N26" s="14"/>
       <c r="O26" s="15"/>
+      <c r="P26" s="0"/>
       <c r="Q26" s="16"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
       <c r="C27" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>71</v>
@@ -2370,11 +3989,11 @@
         <f aca="false">IF(E27="Todo", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>118</v>
+      <c r="H27" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>6</v>
@@ -2387,14 +4006,14 @@
         <f aca="false">IF(J27="Todo", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="8" t="s">
         <v>121</v>
       </c>
+      <c r="N27" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="O27" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>6</v>
@@ -2413,19 +4032,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>6</v>
@@ -2438,8 +4061,13 @@
         <f aca="false">IF(J28="Todo", 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="15"/>
+      <c r="P28" s="0"/>
       <c r="Q28" s="16"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -2448,17 +4076,26 @@
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="N29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="O29" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>6</v>
@@ -2477,23 +4114,35 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="14"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="15"/>
+      <c r="P30" s="0"/>
       <c r="Q30" s="16"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="14"/>
@@ -2501,12 +4150,12 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="16" t="n">
@@ -2518,32 +4167,35 @@
         <v>1</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="16" t="n">
         <f aca="false">IF(P31="Done", 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="16" t="n">
         <f aca="false">IF(P31="Todo", 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="14"/>
@@ -2551,54 +4203,59 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="I32" s="0"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="8"/>
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
+      <c r="P32" s="0"/>
       <c r="Q32" s="16"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N33" s="1" t="s">
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="8" t="s">
         <v>144</v>
       </c>
+      <c r="N33" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="O33" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="16" t="n">
         <f aca="false">IF(P33="Done", 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="16" t="n">
         <f aca="false">IF(P33="Todo", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2608,12 +4265,12 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="16" t="n">
@@ -2624,26 +4281,37 @@
         <f aca="false">IF(J34="Todo", 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="0"/>
       <c r="Q34" s="16"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
       <c r="B35" s="14"/>
       <c r="C35" s="9"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="23" t="s">
-        <v>147</v>
-      </c>
+      <c r="H35" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
       <c r="M35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>6</v>
@@ -2661,11 +4329,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>151</v>
+      <c r="A36" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="14"/>
@@ -2673,13 +4341,19 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I36" s="15"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
       <c r="P36" s="0"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -2694,22 +4368,42 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I37" s="15"/>
-      <c r="M37" s="0"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="16" t="n">
+        <f aca="false">IF(P37="Done", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="16" t="n">
+        <f aca="false">IF(P37="Todo", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="14"/>
@@ -2717,34 +4411,41 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I38" s="15"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="27" t="s">
+      <c r="H39" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K39" s="16" t="n">
@@ -2755,17 +4456,24 @@
         <f aca="false">IF(J39="Todo", 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>17</v>
@@ -2780,9 +4488,16 @@
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
@@ -2790,10 +4505,10 @@
         <v>69</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>17</v>
@@ -2808,14 +4523,22 @@
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
       <c r="B42" s="14"/>
       <c r="C42" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -2823,19 +4546,23 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="15"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>168</v>
+      <c r="A43" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="14"/>
@@ -2844,12 +4571,16 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -2858,8 +4589,8 @@
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>170</v>
+      <c r="C44" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -2867,35 +4598,23 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
       <c r="O44" s="15"/>
-      <c r="P44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q44" s="16" t="n">
-        <f aca="false">IF(P44="Done", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R44" s="16" t="n">
-        <f aca="false">IF(P44="Todo", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="13"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="14"/>
@@ -2904,22 +4623,26 @@
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="15"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2927,25 +4650,41 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="O46" s="15"/>
+      <c r="P46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="16" t="n">
+        <f aca="false">IF(P46="Done", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="R46" s="16" t="n">
+        <f aca="false">IF(P46="Todo", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>17</v>
@@ -2960,22 +4699,26 @@
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
       <c r="O47" s="15"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -2983,12 +4726,16 @@
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
       <c r="O48" s="15"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
@@ -2996,7 +4743,7 @@
         <v>69</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -3004,30 +4751,49 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
       <c r="O49" s="15"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
       <c r="C50" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
       <c r="O50" s="15"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
-        <v>177</v>
+      <c r="A51" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -3035,12 +4801,16 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
       <c r="O51" s="15"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -3056,22 +4826,26 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
       <c r="O52" s="15"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -3079,38 +4853,27 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
       <c r="O53" s="15"/>
-      <c r="P53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q53" s="16" t="n">
-        <f aca="false">IF(P53="Done", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="R53" s="16" t="n">
-        <f aca="false">IF(P53="Todo", 1, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>17</v>
@@ -3125,19 +4888,23 @@
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
       <c r="O54" s="15"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="14"/>
@@ -3146,19 +4913,35 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="O55" s="15"/>
+      <c r="P55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="16" t="n">
+        <f aca="false">IF(P55="Done", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="R55" s="16" t="n">
+        <f aca="false">IF(P55="Todo", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="14"/>
@@ -3167,16 +4950,20 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
       <c r="O56" s="15"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="14"/>
@@ -3185,14 +4972,18 @@
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
       <c r="O57" s="15"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
       <c r="B58" s="1" t="s">
         <v>69</v>
       </c>
@@ -3203,14 +4994,18 @@
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
       <c r="O58" s="15"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
       <c r="B59" s="14"/>
       <c r="C59" s="9"/>
       <c r="D59" s="14"/>
@@ -3225,7 +5020,7 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="27"/>
+      <c r="J59" s="28"/>
       <c r="K59" s="14" t="n">
         <f aca="false">SUM(K8:K58)</f>
         <v>2</v>
@@ -3237,20 +5032,12 @@
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="15"/>
-      <c r="Q59" s="1" t="n">
-        <f aca="false">SUM(Q5:Q54)</f>
-        <v>12</v>
-      </c>
-      <c r="R59" s="1" t="n">
-        <f aca="false">SUM(R5:R54)</f>
-        <v>6</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <f aca="false">SUM(S5:S54)</f>
-        <v>3</v>
-      </c>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
       <c r="B60" s="14"/>
       <c r="C60" s="9"/>
       <c r="D60" s="14"/>
@@ -3259,14 +5046,18 @@
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
       <c r="O60" s="15"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
       <c r="B61" s="14"/>
       <c r="C61" s="9"/>
       <c r="D61" s="14"/>
@@ -3275,77 +5066,93 @@
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="15"/>
+      <c r="Q61" s="1" t="n">
+        <f aca="false">SUM(Q5:Q54)</f>
+        <v>11</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <f aca="false">SUM(R5:R54)</f>
+        <v>6</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <f aca="false">SUM(S5:S54)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
       <c r="B62" s="14"/>
       <c r="C62" s="9"/>
       <c r="D62" s="14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E62" s="14" t="n">
-        <f aca="false">F59+K59+Q59</f>
-        <v>26</v>
+        <f aca="false">F59+K59+Q61</f>
+        <v>25</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
       <c r="O62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
       <c r="B63" s="14"/>
       <c r="C63" s="9"/>
       <c r="D63" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E63" s="14" t="n">
-        <f aca="false">G59+L59+R59</f>
+        <f aca="false">G59+L59+R61</f>
         <v>17</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0"/>
       <c r="B64" s="14"/>
       <c r="C64" s="9"/>
       <c r="D64" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" s="29" t="n">
+        <v>197</v>
+      </c>
+      <c r="E64" s="30" t="n">
         <f aca="false">E62/(E62+E63)</f>
-        <v>0.604651162790698</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
       <c r="O64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
       <c r="B65" s="14"/>
       <c r="C65" s="9"/>
       <c r="D65" s="14"/>
@@ -3354,14 +5161,15 @@
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
       <c r="O65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
       <c r="B66" s="14"/>
       <c r="C66" s="9"/>
       <c r="D66" s="14"/>
@@ -3370,14 +5178,15 @@
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
       <c r="O66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
       <c r="B67" s="14"/>
       <c r="C67" s="9"/>
       <c r="D67" s="14"/>
@@ -3386,14 +5195,15 @@
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
       <c r="O67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
       <c r="B68" s="14"/>
       <c r="C68" s="9"/>
       <c r="D68" s="14"/>
@@ -3402,14 +5212,15 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
       <c r="O68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
       <c r="B69" s="14"/>
       <c r="C69" s="9"/>
       <c r="D69" s="14"/>
@@ -3418,14 +5229,15 @@
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
       <c r="O69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
       <c r="B70" s="14"/>
       <c r="C70" s="9"/>
       <c r="D70" s="14"/>
@@ -3434,14 +5246,15 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
       <c r="O70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0"/>
       <c r="B71" s="14"/>
       <c r="C71" s="9"/>
       <c r="D71" s="14"/>
@@ -3450,14 +5263,15 @@
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
       <c r="O71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
       <c r="B72" s="14"/>
       <c r="C72" s="9"/>
       <c r="D72" s="14"/>
@@ -3466,14 +5280,15 @@
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
       <c r="O72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0"/>
       <c r="B73" s="14"/>
       <c r="C73" s="9"/>
       <c r="D73" s="14"/>
@@ -3482,14 +5297,15 @@
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
       <c r="O73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0"/>
       <c r="B74" s="14"/>
       <c r="C74" s="9"/>
       <c r="D74" s="14"/>
@@ -3498,14 +5314,15 @@
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
       <c r="O74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0"/>
       <c r="B75" s="14"/>
       <c r="C75" s="9"/>
       <c r="D75" s="14"/>
@@ -3514,14 +5331,15 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
       <c r="O75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0"/>
       <c r="B76" s="14"/>
       <c r="C76" s="9"/>
       <c r="D76" s="14"/>
@@ -3530,14 +5348,15 @@
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
       <c r="O76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
       <c r="B77" s="14"/>
       <c r="C77" s="9"/>
       <c r="D77" s="14"/>
@@ -3546,14 +5365,15 @@
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
       <c r="O77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
       <c r="B78" s="14"/>
       <c r="C78" s="9"/>
       <c r="D78" s="14"/>
@@ -3562,14 +5382,15 @@
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
       <c r="O78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
       <c r="B79" s="14"/>
       <c r="C79" s="9"/>
       <c r="D79" s="14"/>
@@ -3578,14 +5399,15 @@
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
       <c r="M79" s="14"/>
       <c r="N79" s="14"/>
       <c r="O79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
       <c r="B80" s="14"/>
       <c r="C80" s="9"/>
       <c r="D80" s="14"/>
@@ -3594,14 +5416,15 @@
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
       <c r="O80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
       <c r="B81" s="14"/>
       <c r="C81" s="9"/>
       <c r="D81" s="14"/>
@@ -3610,14 +5433,15 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
       <c r="O81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
       <c r="B82" s="14"/>
       <c r="C82" s="9"/>
       <c r="D82" s="14"/>
@@ -3626,14 +5450,15 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
       <c r="O82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
       <c r="B83" s="14"/>
       <c r="C83" s="9"/>
       <c r="D83" s="14"/>
@@ -3642,14 +5467,15 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
       <c r="O83" s="15"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
       <c r="B84" s="14"/>
       <c r="C84" s="9"/>
       <c r="D84" s="14"/>
@@ -3658,14 +5484,15 @@
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
       <c r="M84" s="14"/>
       <c r="N84" s="14"/>
       <c r="O84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
       <c r="B85" s="14"/>
       <c r="C85" s="9"/>
       <c r="D85" s="14"/>
@@ -3674,14 +5501,15 @@
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
       <c r="O85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
       <c r="B86" s="14"/>
       <c r="C86" s="9"/>
       <c r="D86" s="14"/>
@@ -3690,14 +5518,15 @@
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
       <c r="O86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
       <c r="B87" s="14"/>
       <c r="C87" s="9"/>
       <c r="D87" s="14"/>
@@ -3706,14 +5535,15 @@
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
       <c r="O87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
       <c r="B88" s="14"/>
       <c r="C88" s="9"/>
       <c r="D88" s="14"/>
@@ -3722,14 +5552,15 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
       <c r="O88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
       <c r="B89" s="14"/>
       <c r="C89" s="9"/>
       <c r="D89" s="14"/>
@@ -3738,14 +5569,15 @@
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
       <c r="O89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
       <c r="B90" s="14"/>
       <c r="C90" s="9"/>
       <c r="D90" s="14"/>
@@ -3754,14 +5586,15 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
       <c r="M90" s="14"/>
       <c r="N90" s="14"/>
       <c r="O90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
       <c r="B91" s="14"/>
       <c r="C91" s="9"/>
       <c r="D91" s="14"/>
@@ -3770,14 +5603,15 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
       <c r="M91" s="14"/>
       <c r="N91" s="14"/>
       <c r="O91" s="15"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
       <c r="B92" s="14"/>
       <c r="C92" s="9"/>
       <c r="D92" s="14"/>
@@ -3786,14 +5620,15 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
       <c r="M92" s="14"/>
       <c r="N92" s="14"/>
       <c r="O92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
       <c r="B93" s="14"/>
       <c r="C93" s="9"/>
       <c r="D93" s="14"/>
@@ -3802,14 +5637,15 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
       <c r="M93" s="14"/>
       <c r="N93" s="14"/>
       <c r="O93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
       <c r="B94" s="14"/>
       <c r="C94" s="9"/>
       <c r="D94" s="14"/>
@@ -3818,14 +5654,15 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
       <c r="O94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
       <c r="B95" s="14"/>
       <c r="C95" s="9"/>
       <c r="D95" s="14"/>
@@ -3834,14 +5671,15 @@
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
       <c r="O95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
       <c r="B96" s="14"/>
       <c r="C96" s="9"/>
       <c r="D96" s="14"/>
@@ -3850,14 +5688,15 @@
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
       <c r="O96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
       <c r="B97" s="14"/>
       <c r="C97" s="9"/>
       <c r="D97" s="14"/>
@@ -3866,14 +5705,15 @@
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
       <c r="O97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
       <c r="B98" s="14"/>
       <c r="C98" s="9"/>
       <c r="D98" s="14"/>
@@ -3882,14 +5722,15 @@
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
       <c r="O98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
       <c r="B99" s="14"/>
       <c r="C99" s="9"/>
       <c r="D99" s="14"/>
@@ -3898,14 +5739,15 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
       <c r="O99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0"/>
       <c r="B100" s="14"/>
       <c r="C100" s="9"/>
       <c r="D100" s="14"/>
@@ -3914,14 +5756,15 @@
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
       <c r="O100" s="15"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0"/>
       <c r="B101" s="14"/>
       <c r="C101" s="9"/>
       <c r="D101" s="14"/>
@@ -3930,14 +5773,15 @@
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
       <c r="O101" s="15"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0"/>
       <c r="B102" s="14"/>
       <c r="C102" s="9"/>
       <c r="D102" s="14"/>
@@ -3946,14 +5790,15 @@
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
       <c r="O102" s="15"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
       <c r="B103" s="14"/>
       <c r="C103" s="9"/>
       <c r="D103" s="14"/>
@@ -3962,14 +5807,15 @@
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
       <c r="O103" s="15"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0"/>
       <c r="B104" s="14"/>
       <c r="C104" s="9"/>
       <c r="D104" s="14"/>
@@ -3978,14 +5824,15 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
       <c r="O104" s="15"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0"/>
       <c r="B105" s="14"/>
       <c r="C105" s="9"/>
       <c r="D105" s="14"/>
@@ -3994,14 +5841,15 @@
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
       <c r="O105" s="15"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0"/>
       <c r="B106" s="14"/>
       <c r="C106" s="9"/>
       <c r="D106" s="14"/>
@@ -4010,14 +5858,15 @@
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
       <c r="O106" s="15"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0"/>
       <c r="B107" s="14"/>
       <c r="C107" s="9"/>
       <c r="D107" s="14"/>
@@ -4026,14 +5875,15 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
       <c r="O107" s="15"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0"/>
       <c r="B108" s="14"/>
       <c r="C108" s="9"/>
       <c r="D108" s="14"/>
@@ -4042,14 +5892,15 @@
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
       <c r="O108" s="15"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0"/>
       <c r="B109" s="14"/>
       <c r="C109" s="9"/>
       <c r="D109" s="14"/>
@@ -4058,14 +5909,15 @@
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
       <c r="O109" s="15"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0"/>
       <c r="B110" s="14"/>
       <c r="C110" s="9"/>
       <c r="D110" s="14"/>
@@ -4074,14 +5926,15 @@
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
       <c r="O110" s="15"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0"/>
       <c r="B111" s="14"/>
       <c r="C111" s="9"/>
       <c r="D111" s="14"/>
@@ -4090,14 +5943,15 @@
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
       <c r="O111" s="15"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0"/>
       <c r="B112" s="14"/>
       <c r="C112" s="9"/>
       <c r="D112" s="14"/>
@@ -4106,14 +5960,15 @@
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
       <c r="O112" s="15"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0"/>
       <c r="B113" s="14"/>
       <c r="C113" s="9"/>
       <c r="D113" s="14"/>
@@ -4122,14 +5977,15 @@
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
       <c r="O113" s="15"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0"/>
       <c r="B114" s="14"/>
       <c r="C114" s="9"/>
       <c r="D114" s="14"/>
@@ -4138,14 +5994,15 @@
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
       <c r="O114" s="15"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0"/>
       <c r="B115" s="14"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
@@ -4154,29 +6011,29 @@
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
       <c r="O115" s="15"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="30"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="34"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4193,13 +6050,926 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L94"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H23" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6842" ySplit="0" topLeftCell="K23" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+      <selection pane="topRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.1734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.9387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.5255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.8061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="65.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="D1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37"/>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="L10" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="D12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="D16" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="D17" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="46"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="46"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="2"/>
+      <c r="F20" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="2"/>
+      <c r="F21" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="46"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="46"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="46"/>
+      <c r="D24" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="8"/>
+      <c r="H27" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4229,17 +6999,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>194</v>
+      <c r="B5" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,12 +7028,12 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4272,16 +7042,16 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,13 +7059,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,10 +7076,10 @@
         <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,7 +7087,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>199</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,21 +7095,21 @@
         <v>45</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +7123,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>202</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +7134,7 @@
         <v>62</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,20 +7142,20 @@
         <v>67</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>168</v>
+      <c r="A17" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4397,49 +7167,49 @@
         <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>205</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>207</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,45 +7217,45 @@
         <v>37</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>209</v>
+      <c r="A24" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>117</v>
+        <v>412</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>67</v>
@@ -4502,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
@@ -4510,7 +7280,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4526,194 +7296,194 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>211</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>213</v>
+      <c r="A3" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
-        <v>214</v>
+      <c r="A4" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54" t="s">
+        <v>416</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>216</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>419</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>219</v>
+        <v>421</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>221</v>
+        <v>423</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>222</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>223</v>
+        <v>425</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>225</v>
+        <v>427</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>227</v>
+        <v>429</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>228</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>223</v>
+        <v>425</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>229</v>
+        <v>431</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>227</v>
+        <v>429</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>225</v>
+        <v>427</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>232</v>
+        <v>434</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>233</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>236</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>240</v>
+        <v>442</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>241</v>
+        <v>443</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>242</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>241</v>
+        <v>443</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>243</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/Godigio Design Document.xlsx
+++ b/Godigio Design Document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="214" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="195" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fanhub 0.5" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser= null</t>
         </r>
@@ -42,6 +43,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Note: A user can only like a post once.  Version 2.0 will have like and dislike buttons.
 May want to have the ability to like and dislike a post.
@@ -56,6 +58,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete is disabled if userpage and loggedinuser not the same.</t>
         </r>
@@ -68,6 +71,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser = null</t>
         </r>
@@ -80,6 +84,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete comment is disabled unless userpage = loggedinuser or loggedinuser = commentuser
 </t>
@@ -91,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="464">
   <si>
     <t>Fanhub Model View Controller (MVC) Document</t>
   </si>
@@ -693,21 +698,24 @@
     <t>Controller</t>
   </si>
   <si>
+    <t>blah blah</t>
+  </si>
+  <si>
     <t>#btnFanToggle</t>
   </si>
   <si>
     <t>#divLoginLogout</t>
   </si>
   <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>formcontrols.js</t>
+  </si>
+  <si>
     <t>controller.js</t>
   </si>
   <si>
-    <t>index.js</t>
-  </si>
-  <si>
-    <t>formcontrols.js</t>
-  </si>
-  <si>
     <t>Postform (#frmPost)</t>
   </si>
   <si>
@@ -721,6 +729,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -731,6 +740,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">document</t>
     </r>
@@ -741,6 +751,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -751,6 +762,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.ready</t>
     </r>
@@ -761,6 +773,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -771,6 +784,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -781,6 +795,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -791,6 +806,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">()</t>
     </r>
@@ -801,6 +817,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -811,6 +828,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{</t>
     </r>
@@ -834,6 +852,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> pageUser </t>
     </r>
@@ -843,6 +862,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -852,6 +872,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> window.location.search.split</t>
     </r>
@@ -861,6 +882,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -870,6 +892,7 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"="</t>
     </r>
@@ -879,6 +902,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)[</t>
     </r>
@@ -888,6 +912,7 @@
         <color rgb="FF9B5F9B"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -897,12 +922,13 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">];</t>
     </r>
   </si>
   <si>
-    <t>fields = form.find(".w3-input");    </t>
+    <t>fields = form.find(".w3-input");</t>
   </si>
   <si>
     <r>
@@ -910,37 +936,45 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> getCurrentUser</t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">callback</t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="9.5"/>
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
@@ -964,6 +998,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> numfields </t>
     </r>
@@ -973,6 +1008,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -982,6 +1018,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> fields.length</t>
     </r>
@@ -991,6 +1028,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1000,6 +1038,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -1014,6 +1053,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1023,6 +1063,7 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getCurrentUser.php"</t>
     </r>
@@ -1032,6 +1073,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1041,6 +1083,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1050,6 +1093,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1059,6 +1103,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1068,6 +1113,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1077,6 +1123,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
@@ -1097,6 +1144,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1106,6 +1154,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">var</t>
     </r>
@@ -1115,6 +1164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1124,6 +1174,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -1133,6 +1184,7 @@
         <color rgb="FF9B5F9B"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1142,6 +1194,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1151,6 +1204,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1160,6 +1214,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;</t>
     </r>
@@ -1169,6 +1224,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">numfields</t>
     </r>
@@ -1178,6 +1234,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1187,6 +1244,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1196,6 +1254,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">++)</t>
     </r>
@@ -1205,6 +1264,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1214,6 +1274,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{</t>
     </r>
@@ -1243,6 +1304,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[</t>
     </r>
@@ -1252,6 +1314,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">i</t>
     </r>
@@ -1261,6 +1324,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]</t>
     </r>
@@ -1270,6 +1334,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.value </t>
     </r>
@@ -1279,6 +1344,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -1288,6 +1354,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1297,6 +1364,7 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">""</t>
     </r>
@@ -1306,6 +1374,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;}</t>
     </r>
@@ -1341,6 +1410,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1350,6 +1420,7 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getProfileData.php?user="+user</t>
     </r>
@@ -1359,6 +1430,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1368,6 +1440,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1377,6 +1450,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1386,6 +1460,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1395,6 +1470,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1404,6 +1480,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
@@ -1430,19 +1507,34 @@
     <t>#lblFanOfCount</t>
   </si>
   <si>
+    <t>#tmplPost</t>
+  </si>
+  <si>
+    <t>$(“#btnEditProfile”).show();</t>
+  </si>
+  <si>
+    <t>// show #btnEditProfile</t>
+  </si>
+  <si>
+    <t>if(startswith(key, “lbl”)){</t>
+  </si>
+  <si>
     <t>getAllPosts</t>
   </si>
   <si>
     <t>getUsersPosts</t>
   </si>
   <si>
-    <t>$(“#btnEditProfile”).show();</t>
-  </si>
-  <si>
-    <t>// show #btnEditProfile</t>
-  </si>
-  <si>
-    <t>if(startswith(key, “lbl”)){</t>
+    <t>$(“#frmPost”).show();}</t>
+  </si>
+  <si>
+    <t>// show #frmPost</t>
+  </si>
+  <si>
+    <t>div.find(key).html(record[key]);}</t>
+  </si>
+  <si>
+    <t>function getFanList(user, callback){</t>
   </si>
   <si>
     <t>&lt;&lt;#lstAllPosts</t>
@@ -1451,28 +1543,149 @@
     <t>&lt;&lt;#lstUsersPosts</t>
   </si>
   <si>
-    <t>$(“#frmPost”).show();}</t>
-  </si>
-  <si>
-    <t>// show #frmPost</t>
-  </si>
-  <si>
-    <t>div.find(key).html(record[key]);}</t>
-  </si>
-  <si>
-    <t>function getFanList(user, callback){</t>
+    <t>else {</t>
+  </si>
+  <si>
+    <t>// if not on home page</t>
+  </si>
+  <si>
+    <t>if(startswith(key, “img”)){</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getFanList.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF4F76AC"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>#tmplFan</t>
   </si>
   <si>
     <t>.lblMessage</t>
   </si>
   <si>
-    <t>else {</t>
-  </si>
-  <si>
-    <t>// if not on home page</t>
-  </si>
-  <si>
-    <t>if(startswith(key, “img”)){</t>
+    <t>$(“#btnFanToggle”).show()}</t>
+  </si>
+  <si>
+    <t>// show #btnFanToggle</t>
+  </si>
+  <si>
+    <t>div.find(key).attr(“src”, record[key]);)}</t>
+  </si>
+  <si>
+    <t>getFanList</t>
+  </si>
+  <si>
+    <t>.imgPost</t>
+  </si>
+  <si>
+    <t>// if not logged in</t>
+  </si>
+  <si>
+    <t>&lt;&lt;#lstFans</t>
+  </si>
+  <si>
+    <t>.imgUser</t>
+  </si>
+  <si>
+    <t>$(“#btnLoginLogout”).html(“Log In”);}</t>
+  </si>
+  <si>
+    <t>// set #btnLoginLogout to Login</t>
+  </si>
+  <si>
+    <t>function cloneDiv(template, record){</t>
+  </si>
+  <si>
+    <t>function getFanOfList(user, callback){</t>
+  </si>
+  <si>
+    <t>.imgFanProfile</t>
+  </si>
+  <si>
+    <t>.btnShare</t>
+  </si>
+  <si>
+    <t>var newDiv = template.clone();</t>
   </si>
   <si>
     <r>
@@ -1484,6 +1697,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1493,8 +1707,9 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"./controllers/getFanList.php?user="+user</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getFanOfList.php?user="+user</t>
     </r>
     <r>
       <rPr>
@@ -1502,6 +1717,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1511,6 +1727,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1520,6 +1737,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1529,6 +1747,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1538,6 +1757,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1547,60 +1767,61 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>getFanList</t>
-  </si>
-  <si>
-    <t>.imgPost</t>
-  </si>
-  <si>
-    <t>$(“#btnFanToggle”).show()}</t>
-  </si>
-  <si>
-    <t>// show #btnFanToggle</t>
-  </si>
-  <si>
-    <t>div.find(key).attr(“src”, record[key]);)}</t>
-  </si>
-  <si>
-    <t>&lt;&lt;#lstFans</t>
-  </si>
-  <si>
-    <t>.imgUser</t>
-  </si>
-  <si>
-    <t>// if not logged in</t>
-  </si>
-  <si>
-    <t>.imgFanProfile</t>
-  </si>
-  <si>
-    <t>.btnShare</t>
-  </si>
-  <si>
-    <t>$(“#btnLoginLogout”).html(“Log In”);}</t>
-  </si>
-  <si>
-    <t>// set #btnLoginLogout to Login</t>
-  </si>
-  <si>
-    <t>function cloneDiv(selector, record){</t>
-  </si>
-  <si>
-    <t>function getFanOfList(user, callback){</t>
-  </si>
-  <si>
     <t>.lblFanName&gt;&gt;</t>
   </si>
   <si>
     <t>.lblShareCount</t>
   </si>
   <si>
-    <t>var newDiv = $(“#selector”).clone();</t>
+    <t>getProfileData(userpage, function(profileData){</t>
+  </si>
+  <si>
+    <t>// Get profile data</t>
+  </si>
+  <si>
+    <t>populateDiv(newDiv, record);}</t>
+  </si>
+  <si>
+    <t>.btnComment</t>
+  </si>
+  <si>
+    <t>if(profileData == undefined){</t>
+  </si>
+  <si>
+    <t>// if you can't find profile data for userpage</t>
+  </si>
+  <si>
+    <t>.lblCommentCount</t>
+  </si>
+  <si>
+    <t>window.location.replace(“welcome.html”)}</t>
+  </si>
+  <si>
+    <t>// redirect to welcome page</t>
+  </si>
+  <si>
+    <t>function increment(e){</t>
+  </si>
+  <si>
+    <t>function getAllPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>.btnLikePost</t>
+  </si>
+  <si>
+    <t>populateDiv($(“#divProfile”), profiledata)})</t>
+  </si>
+  <si>
+    <t>// Populate profile div with profile data</t>
+  </si>
+  <si>
+    <t>e.html(e.html++);}</t>
   </si>
   <si>
     <r>
@@ -1612,6 +1833,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1621,8 +1843,9 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"./controllers/getFanOfList.php?user="+user</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getAllPosts.php?user="+user</t>
     </r>
     <r>
       <rPr>
@@ -1630,6 +1853,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1639,6 +1863,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1648,6 +1873,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1657,6 +1883,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1666,6 +1893,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1675,54 +1903,52 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>.btnComment</t>
-  </si>
-  <si>
-    <t>getProfileData(userpage, function(profileData){</t>
-  </si>
-  <si>
-    <t>// Get profile data</t>
-  </si>
-  <si>
-    <t>populateDiv(newDiv, record);}</t>
-  </si>
-  <si>
-    <t>.lblCommentCount</t>
-  </si>
-  <si>
-    <t>if(profileData == undefined){</t>
-  </si>
-  <si>
-    <t>// if you can't find profile data for userpage</t>
-  </si>
-  <si>
-    <t>.btnLikePost</t>
-  </si>
-  <si>
-    <t>window.location.replace(“welcome.html”)}</t>
-  </si>
-  <si>
-    <t>// redirect to welcome page</t>
-  </si>
-  <si>
-    <t>function getAllPosts(user, callback){</t>
-  </si>
-  <si>
     <t>getFanOfList</t>
   </si>
   <si>
     <t>.lblLikeCount</t>
   </si>
   <si>
-    <t>populateDiv($(“#divProfile”), profiledata)})</t>
-  </si>
-  <si>
-    <t>// Populate profile div with profile data</t>
+    <t>&lt;&lt;#lstFanOf</t>
+  </si>
+  <si>
+    <t>.lstComments</t>
+  </si>
+  <si>
+    <t>getFanList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>// Get list of fans</t>
+  </si>
+  <si>
+    <t>function populateList(list, data, template, callback){</t>
+  </si>
+  <si>
+    <t>.btnDelete&gt;&gt;</t>
+  </si>
+  <si>
+    <t>var fanlist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>var posts = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>function getUsersPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>populateList($(“#lstFans”), fanlist, $(“#tmplFan”));})</t>
+  </si>
+  <si>
+    <t>// Populate fan list</t>
+  </si>
+  <si>
+    <t>for(var i = 0; i &lt; posts.length; i++){</t>
   </si>
   <si>
     <r>
@@ -1734,6 +1960,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1743,8 +1970,9 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"./controllers/getAllPosts.php?user="+user</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getUsersPost.php?user="+user</t>
     </r>
     <r>
       <rPr>
@@ -1752,6 +1980,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1761,6 +1990,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1770,6 +2000,7 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1779,6 +2010,7 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1788,6 +2020,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1797,43 +2030,113 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>&lt;&lt;#lstFanOf</t>
-  </si>
-  <si>
-    <t>.lstComments</t>
-  </si>
-  <si>
-    <t>.btnDelete</t>
-  </si>
-  <si>
-    <t>getFanList(userpage, function(fanData){</t>
-  </si>
-  <si>
-    <t>// Get list of fans</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>var fanlist = JSON.parse(fanData);</t>
-  </si>
-  <si>
-    <t>function getUsersPosts(user, callback){</t>
-  </si>
-  <si>
-    <t>populateList(“#lstFans”, fanlist, “#tmplFan”);})</t>
-  </si>
-  <si>
-    <t>// Populate fan list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$.get</t>
+    <t>newRecord = posts[i];</t>
+  </si>
+  <si>
+    <t>Commentform (#mdlComment)</t>
+  </si>
+  <si>
+    <t>getFanOfList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>// Get fan of list</t>
+  </si>
+  <si>
+    <t>newDiv = cloneDiv(template, newRecord);</t>
+  </si>
+  <si>
+    <t>#txtCommentMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>var fanoflist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>list.append(newDiv);</t>
+  </si>
+  <si>
+    <t>#btnSubmitComment</t>
+  </si>
+  <si>
+    <t>populateList($(“#lstFanOf”), fanoflist, $(“#tmplFan”))})</t>
+  </si>
+  <si>
+    <t>// Populate fan of list</t>
+  </si>
+  <si>
+    <t>if(callback != undefined){</t>
+  </si>
+  <si>
+    <t>callback(newDiv)}}}</t>
+  </si>
+  <si>
+    <t>Shareform (#mdlShare)</t>
+  </si>
+  <si>
+    <t>getAllPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>// Get all posts</t>
+  </si>
+  <si>
+    <t>#txtShareMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>populatePostList($(“#lstAllPosts”), data);})</t>
+  </si>
+  <si>
+    <t>// Populate all posts list</t>
+  </si>
+  <si>
+    <t>#btnSubmitShare</t>
+  </si>
+  <si>
+    <t>getUsersPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>// Get users posts</t>
+  </si>
+  <si>
+    <t>populatePostList($(“#lstAllPosts”), data);})})</t>
+  </si>
+  <si>
+    <t>// Populate users posts list</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitPost”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Submit new post</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#frmPost”);</t>
+  </si>
+  <si>
+    <t>putPost(fields, function(data){</t>
+  </si>
+  <si>
+    <t>// Add post to database</t>
+  </si>
+  <si>
+    <t>var newRecord = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>// Clear post form</t>
+  </si>
+  <si>
+    <t>if(newRecord[“image”] != “”){</t>
+  </si>
+  <si>
+    <t>// Add post to timeline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uploadFile</t>
     </r>
     <r>
       <rPr>
@@ -1851,7 +2154,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"./controllers/getUsersPost.php?user="+user</t>
+      <t xml:space="preserve">"#imageupload"</t>
     </r>
     <r>
       <rPr>
@@ -1869,16 +2172,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
+      <t xml:space="preserve"> newRecord[“image”]</t>
     </r>
     <r>
       <rPr>
@@ -1887,302 +2181,215 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">){</t>
-    </r>
-  </si>
-  <si>
-    <t>Commentform (#mdlComment)</t>
-  </si>
-  <si>
-    <t>#txtCommentMessage (.w3-input)</t>
-  </si>
-  <si>
-    <t>getFanOfList(userpage, function(fanData){</t>
-  </si>
-  <si>
-    <t>// Get fan of list</t>
-  </si>
-  <si>
-    <t>#btnSubmitComment</t>
-  </si>
-  <si>
-    <t>var fanoflist = JSON.parse(fanData);</t>
-  </si>
-  <si>
-    <t>populateList(“#lstFanOf”, fanoflist, “#tmplFan”);})</t>
-  </si>
-  <si>
-    <t>// Populate fan of list</t>
-  </si>
-  <si>
-    <t>Shareform (#mdlShare)</t>
-  </si>
-  <si>
-    <t>#txtShareMessage (.w3-input)</t>
-  </si>
-  <si>
-    <t>getAllPosts(userpage, function(data) {</t>
-  </si>
-  <si>
-    <t>// Get all posts</t>
-  </si>
-  <si>
-    <t>#btnSubmitShare</t>
-  </si>
-  <si>
-    <t>populatePostList(“#lstAllPosts”, data);})</t>
-  </si>
-  <si>
-    <t>// Populate all posts list</t>
-  </si>
-  <si>
-    <t>getUsersPosts(userpage, function(data) {</t>
-  </si>
-  <si>
-    <t>// Get users posts</t>
-  </si>
-  <si>
-    <t>populatePostList(“#lstAllPosts”, data);})})</t>
-  </si>
-  <si>
-    <t>// Populate users posts list</t>
-  </si>
-  <si>
-    <t>$(“#btnSubmitPost”).click(function() {</t>
-  </si>
-  <si>
-    <t>// Submit new post</t>
-  </si>
-  <si>
-    <t>var fields = form2json(“#frmPost”);</t>
-  </si>
-  <si>
-    <t>putPost(fields, function(newRecord){</t>
-  </si>
-  <si>
-    <t>// Add post to database</t>
+      <t xml:space="preserve">)};</t>
+    </r>
   </si>
   <si>
     <t>clearForm(“#frmPost”);</t>
   </si>
   <si>
-    <t>// Clear post form</t>
+    <t>newPost = cloneDiv($(“#tmplPost”), newRecord);</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).prepend(newPost);</t>
+  </si>
+  <si>
+    <t>// Submit new comment</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPost”).prepend(newPost) })</t>
+  </si>
+  <si>
+    <t>//  Add comment to database</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitComment”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Clear comment modal</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#mdlComment”);</t>
+  </si>
+  <si>
+    <t>// Increment comment count</t>
+  </si>
+  <si>
+    <t>putComment(fields, function(newComment){</t>
+  </si>
+  <si>
+    <t>// Add comment to timeline</t>
+  </si>
+  <si>
+    <t>clearForm(“#mdlComment”);</t>
+  </si>
+  <si>
+    <t>// Close comment modal</t>
+  </si>
+  <si>
+    <t>increment(“.lblCommentCount”);</t>
+  </si>
+  <si>
+    <t>$(“.lstComments”).prepend(cloneDiv(#tmplComment,newComment));</t>
+  </si>
+  <si>
+    <t>// Submit new share</t>
+  </si>
+  <si>
+    <t>$(“#mdlComment”).hide();}))</t>
+  </si>
+  <si>
+    <t>// Add share to database</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitShare”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Clear share modal</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#mdlShare”);</t>
+  </si>
+  <si>
+    <t>// Increment share count</t>
+  </si>
+  <si>
+    <t>putShare(fields, function(res){</t>
+  </si>
+  <si>
+    <t>// Close share modal</t>
+  </si>
+  <si>
+    <t>clearForm(“#mdlShare”);</t>
+  </si>
+  <si>
+    <t>increment(.lblShareCount);</t>
+  </si>
+  <si>
+    <t>$(“#mdlShare”).hide() }))</t>
+  </si>
+  <si>
+    <t>// Show share modal</t>
+  </si>
+  <si>
+    <t>$(“#btnShare”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#mdlShare”).show() })</t>
+  </si>
+  <si>
+    <t>// Show comment modal</t>
+  </si>
+  <si>
+    <t>$(“#btnComment”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#mdlComment”).show() })</t>
+  </si>
+  <si>
+    <t>// Toggle like in database</t>
+  </si>
+  <si>
+    <t>// Toggle like on form</t>
+  </si>
+  <si>
+    <t>$(“#btnLikePost”).click(function() {</t>
+  </si>
+  <si>
+    <t>toggleLikeTable(currentUser, postId, function(res){</t>
+  </si>
+  <si>
+    <t>toggleLikeIcon(this);}))</t>
+  </si>
+  <si>
+    <t>// Show All Posts Tab</t>
+  </si>
+  <si>
+    <t>$(“#btnAllPosts”).click(function() {</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).show();</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPosts”).hide()})</t>
+  </si>
+  <si>
+    <t>// Show User's Posts Tab</t>
+  </si>
+  <si>
+    <t>$(“#lstAllPosts”).hide();</t>
+  </si>
+  <si>
+    <t>$(“#lstUsersPosts”).show();})</t>
+  </si>
+  <si>
+    <t>// Find current post</t>
+  </si>
+  <si>
+    <t>// Find current post id</t>
+  </si>
+  <si>
+    <t>$(“.btnDeletePost”).click(function() {</t>
+  </si>
+  <si>
+    <t>// Delete post from database</t>
+  </si>
+  <si>
+    <t>currentPost = findParent(this, “#tmplPost”);</t>
+  </si>
+  <si>
+    <t>// Delete post from list</t>
+  </si>
+  <si>
+    <t>postid = currentPost.find(“.postid”).val;</t>
+  </si>
+  <si>
+    <t>deletePost(postid, function(){</t>
+  </si>
+  <si>
+    <t>deleteDiv(currentPost)})})</t>
+  </si>
+  <si>
+    <t>// For all posts</t>
+  </si>
+  <si>
+    <t>function populatePostList(data){</t>
+  </si>
+  <si>
+    <t>posts = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>// Populate post widget</t>
+  </si>
+  <si>
+    <t>// Append post to post list</t>
+  </si>
+  <si>
+    <t>newRecord = JSON.parse(posts[i]);</t>
   </si>
   <si>
     <t>newPost = cloneDiv(“#tmplPost”, newRecord);</t>
   </si>
   <si>
-    <t>// Add post to timeline</t>
-  </si>
-  <si>
-    <t>$(“#lstAllPosts”).prepend(newPost);</t>
-  </si>
-  <si>
-    <t>$(“#lstUsersPost”).prepend(newPost) })</t>
-  </si>
-  <si>
-    <t>$(“#btnSubmitComment”).click(function() {</t>
-  </si>
-  <si>
-    <t>// Submit new comment</t>
-  </si>
-  <si>
-    <t>var fields = form2json(“#mdlComment”);</t>
-  </si>
-  <si>
-    <t>putComment(fields, function(newComment){</t>
-  </si>
-  <si>
-    <t>//  Add comment to database</t>
-  </si>
-  <si>
-    <t>clearForm(“#mdlComment”);</t>
-  </si>
-  <si>
-    <t>// Clear comment modal</t>
-  </si>
-  <si>
-    <t>increment(“.lblCommentCount”);</t>
-  </si>
-  <si>
-    <t>// Increment comment count</t>
-  </si>
-  <si>
-    <t>$(“.lstComments”).prepend(cloneDiv(#tmplComment,newComment));</t>
-  </si>
-  <si>
-    <t>// Add comment to timeline</t>
-  </si>
-  <si>
-    <t>$(“#mdlComment”).hide();}))</t>
-  </si>
-  <si>
-    <t>// Close comment modal</t>
-  </si>
-  <si>
-    <t>$(“#btnSubmitShare”).click(function() {</t>
-  </si>
-  <si>
-    <t>// Submit new share</t>
-  </si>
-  <si>
-    <t>var fields = form2json(“#mdlShare”);</t>
-  </si>
-  <si>
-    <t>putShare(fields, function(res){</t>
-  </si>
-  <si>
-    <t>// Add share to database</t>
-  </si>
-  <si>
-    <t>clearForm(“#mdlShare”);</t>
-  </si>
-  <si>
-    <t>// Clear share modal</t>
-  </si>
-  <si>
-    <t>increment(.lblShareCount);</t>
-  </si>
-  <si>
-    <t>// Increment share count</t>
-  </si>
-  <si>
-    <t>$(“#mdlShare”).hide() }))</t>
-  </si>
-  <si>
-    <t>// Close share modal</t>
-  </si>
-  <si>
-    <t>$(“#btnShare”).click(function() {</t>
-  </si>
-  <si>
-    <t>$(“#mdlShare”).show() })</t>
-  </si>
-  <si>
-    <t>// Show share modal</t>
-  </si>
-  <si>
-    <t>$(“#btnComment”).click(function() {</t>
-  </si>
-  <si>
-    <t>$(“#mdlComment”).show() })</t>
-  </si>
-  <si>
-    <t>// Show comment modal</t>
-  </si>
-  <si>
-    <t>$(“#btnLikePost”).click(function() {</t>
-  </si>
-  <si>
-    <t>toggleLikeTable(currentUser, postId, function(res){</t>
-  </si>
-  <si>
-    <t>// Toggle like in database</t>
-  </si>
-  <si>
-    <t>toggleLikeIcon(this);}))</t>
-  </si>
-  <si>
-    <t>// Toggle like on form</t>
-  </si>
-  <si>
-    <t>$(“#btnAllPosts”).click(function() {</t>
-  </si>
-  <si>
-    <t>$(“#lstAllPosts”).show();</t>
-  </si>
-  <si>
-    <t>// Show All Posts Tab</t>
-  </si>
-  <si>
-    <t>$(“#lstUsersPosts”).hide()})</t>
-  </si>
-  <si>
-    <t>$(“#lstAllPosts”).hide();</t>
-  </si>
-  <si>
-    <t>$(“#lstUsersPosts”).show();})</t>
-  </si>
-  <si>
-    <t>// Show User's Posts Tab</t>
-  </si>
-  <si>
-    <t>$(“.btnDeletePost”).click(function() {</t>
-  </si>
-  <si>
-    <t>currentPost = findParent(this, “#tmplPost”);</t>
-  </si>
-  <si>
-    <t>// Find current post</t>
-  </si>
-  <si>
-    <t>postid = currentPost.find(“.postid”).val;</t>
-  </si>
-  <si>
-    <t>// Find current post id</t>
-  </si>
-  <si>
-    <t>deletePost(postid, function(){</t>
-  </si>
-  <si>
-    <t>// Delete post from database</t>
-  </si>
-  <si>
-    <t>deleteDiv(currentPost)})})</t>
-  </si>
-  <si>
-    <t>// Delete post from list</t>
-  </si>
-  <si>
-    <t>function populatePostList(data){</t>
-  </si>
-  <si>
-    <t>posts = JSON.parse(data);</t>
-  </si>
-  <si>
-    <t>for(var i = 0; i &lt; posts.length; i++){</t>
-  </si>
-  <si>
-    <t>// For all posts</t>
-  </si>
-  <si>
-    <t>newRecord = JSON.parse(posts[i]);</t>
-  </si>
-  <si>
-    <t>// Populate post widget</t>
+    <t>// Set like icon</t>
   </si>
   <si>
     <t>append(.lstAllPosts, newPost);</t>
   </si>
   <si>
-    <t>// Append post to post list</t>
-  </si>
-  <si>
     <t>if(likesPost(currentuser, newPost)){</t>
   </si>
   <si>
     <t>setLike(newPost);}</t>
   </si>
   <si>
-    <t>// Set like icon</t>
+    <t>function populatePostList(list, data){</t>
+  </si>
+  <si>
+    <t>populateList(list, data, $(“#tmplPost”), function(newPost){</t>
+  </si>
+  <si>
+    <t>setLike(newPost)}}))}</t>
   </si>
   <si>
     <t>Fanmatrix</t>
@@ -2347,11 +2554,12 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2372,18 +2580,21 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2391,6 +2602,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2398,41 +2610,48 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2440,6 +2659,7 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2447,6 +2667,7 @@
       <color rgb="FF1E7C70"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2454,12 +2675,85 @@
       <color rgb="FF4F76AC"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF4F76AC"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF1E7C70"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF823125"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF9B5F9B"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -2480,42 +2774,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF9B5F9B"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2532,12 +2806,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CCFF"/>
         <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2798,7 +3066,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2806,43 +3078,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2851,6 +3091,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2904,7 +3172,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -2985,6 +3253,9 @@
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
@@ -3006,6 +3277,9 @@
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3041,6 +3315,9 @@
       <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -3068,6 +3345,9 @@
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -3109,6 +3389,9 @@
         <v>0</v>
       </c>
       <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -3134,6 +3417,9 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -3183,6 +3469,9 @@
         <v>0</v>
       </c>
       <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -3220,6 +3509,9 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -3271,6 +3563,9 @@
         <v>0</v>
       </c>
       <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -3306,6 +3601,9 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -3345,6 +3643,9 @@
         <v>0</v>
       </c>
       <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -3370,6 +3671,9 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -3433,6 +3737,9 @@
         <v>0</v>
       </c>
       <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -3462,6 +3769,9 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -3503,6 +3813,9 @@
         <v>0</v>
       </c>
       <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
@@ -3538,6 +3851,9 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
@@ -3589,6 +3905,9 @@
         <v>0</v>
       </c>
       <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -3634,6 +3953,9 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -6050,15 +6372,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H23" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6842" ySplit="0" topLeftCell="K23" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
-      <selection pane="topRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6067,11 +6387,11 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7142857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.1734693877551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.9387755102041"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.8061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.1683673469388"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="65.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
@@ -6092,16 +6412,16 @@
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="D3" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6111,6 +6431,9 @@
       </c>
       <c r="J4" s="37" t="s">
         <v>204</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,134 +6442,135 @@
         <v>49</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" s="39" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="40" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="41" t="s">
         <v>219</v>
       </c>
+      <c r="F8" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="J8" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="L8" s="42" t="s">
         <v>221</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="43" t="s">
         <v>223</v>
       </c>
+      <c r="F9" s="42" t="s">
+        <v>224</v>
+      </c>
       <c r="H9" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="40" t="s">
         <v>226</v>
       </c>
+      <c r="J9" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J10" s="39"/>
-      <c r="L10" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="40" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="D12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>237</v>
       </c>
+      <c r="G12" s="37" t="s">
+        <v>238</v>
+      </c>
       <c r="H12" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>221</v>
+        <v>241</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,32 +6578,31 @@
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="42" t="s">
         <v>243</v>
       </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="0" t="s">
         <v>244</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="46" t="s">
         <v>246</v>
       </c>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="17"/>
       <c r="C14" s="2"/>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="42" t="s">
         <v>248</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -6288,10 +6611,10 @@
       <c r="I14" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="45" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6304,649 +6627,735 @@
         <v>253</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="J15" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="J15" s="46" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="D16" s="41" t="s">
-        <v>258</v>
+      <c r="D16" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>221</v>
+        <v>263</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="D17" s="8" t="s">
-        <v>263</v>
+      <c r="D17" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>265</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="0" t="s">
-        <v>266</v>
+      <c r="D18" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="L18" s="0" t="s">
         <v>271</v>
       </c>
+      <c r="L18" s="45" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="8" t="s">
-        <v>272</v>
+      <c r="D19" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="L19" s="40" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
+      <c r="L19" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
       <c r="B20" s="17"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="F20" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>221</v>
+        <v>281</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="F21" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>282</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="17"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>283</v>
+      <c r="F22" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="17"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>288</v>
+      <c r="D23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>290</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="D24" s="8" t="s">
         <v>292</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="D24" s="42" t="s">
+        <v>295</v>
+      </c>
       <c r="F24" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>221</v>
+        <v>296</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>294</v>
+      <c r="D25" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>298</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>296</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>297</v>
+      <c r="D26" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>302</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="37"/>
       <c r="H27" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>221</v>
+        <v>307</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="8"/>
+      <c r="J28" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="L28" s="43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="0" t="s">
-        <v>304</v>
+      <c r="F29" s="37" t="s">
+        <v>311</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="41" t="s">
-        <v>307</v>
+      <c r="F30" s="0" t="s">
+        <v>315</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="42" t="s">
+        <v>318</v>
+      </c>
       <c r="H31" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="37" t="s">
-        <v>311</v>
+      <c r="J32" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="0" t="s">
-        <v>312</v>
+      <c r="F33" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="41" t="s">
-        <v>315</v>
+      <c r="F34" s="0" t="s">
+        <v>326</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>317</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="42" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="37" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="41" t="s">
-        <v>320</v>
+      <c r="H37" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="37" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H41" s="47" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="0" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="48" t="s">
-        <v>327</v>
+      <c r="H43" s="0" t="s">
+        <v>339</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="41" t="s">
-        <v>331</v>
+      <c r="H45" s="48" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="41" t="s">
-        <v>332</v>
+      <c r="H46" s="42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="37" t="s">
-        <v>333</v>
+      <c r="H48" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="47" t="s">
-        <v>335</v>
+      <c r="H49" s="42" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="49" t="s">
-        <v>336</v>
-      </c>
       <c r="I50" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="0" t="s">
-        <v>338</v>
+      <c r="H51" s="37" t="s">
+        <v>350</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="50" t="s">
-        <v>340</v>
+      <c r="H52" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="50" t="s">
-        <v>342</v>
+      <c r="H53" s="49" t="s">
+        <v>354</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H54" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="50" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="37" t="s">
-        <v>346</v>
+      <c r="H56" s="50" t="s">
+        <v>359</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="47" t="s">
-        <v>348</v>
+      <c r="H57" s="0" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="49" t="s">
-        <v>349</v>
-      </c>
       <c r="I58" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="0" t="s">
-        <v>351</v>
+      <c r="H59" s="37" t="s">
+        <v>363</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="41" t="s">
-        <v>353</v>
+      <c r="H60" s="47" t="s">
+        <v>365</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="0" t="s">
-        <v>355</v>
+      <c r="H61" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="37" t="s">
-        <v>357</v>
+      <c r="H63" s="42" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H64" s="0" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H66" s="37" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H67" s="0" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H69" s="37" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="49" t="s">
-        <v>364</v>
+      <c r="H70" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="51" t="s">
-        <v>366</v>
-      </c>
       <c r="I71" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="37" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="37" t="s">
-        <v>368</v>
+      <c r="H73" s="49" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="0" t="s">
-        <v>369</v>
+      <c r="H74" s="51" t="s">
+        <v>382</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="37" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="37" t="s">
-        <v>368</v>
+      <c r="H77" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H78" s="0" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="I79" s="0" t="s">
-        <v>374</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="37" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H81" s="37" t="s">
-        <v>375</v>
+      <c r="H81" s="0" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H82" s="0" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H83" s="0" t="s">
-        <v>378</v>
-      </c>
       <c r="I83" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H84" s="0" t="s">
-        <v>380</v>
+      <c r="H84" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H85" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="0" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H87" s="37" t="s">
-        <v>384</v>
+      <c r="H87" s="0" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H88" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H89" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="I89" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H90" s="43" t="s">
-        <v>388</v>
+      <c r="H90" s="37" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="0" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H92" s="0" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="0" t="s">
-        <v>392</v>
+      <c r="H93" s="42" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H94" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7412,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,7 +7460,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,10 +7485,10 @@
         <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,7 +7496,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7504,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,7 +7518,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,7 +7532,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,7 +7543,7 @@
         <v>62</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,7 +7551,7 @@
         <v>67</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7576,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,7 +7590,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,7 +7618,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,10 +7631,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,7 +7642,7 @@
         <v>133</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>118</v>
@@ -7296,194 +7705,194 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/Godigio Design Document.xlsx
+++ b/Godigio Design Document.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="195" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="195" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fanhub 0.5" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="MVC Functions" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Fanhub" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Eventful Data Flow" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -30,7 +31,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser= null</t>
         </r>
@@ -43,7 +43,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Note: A user can only like a post once.  Version 2.0 will have like and dislike buttons.
 May want to have the ability to like and dislike a post.
@@ -58,7 +57,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete is disabled if userpage and loggedinuser not the same.</t>
         </r>
@@ -71,7 +69,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disabled if loggedinuser = null</t>
         </r>
@@ -84,7 +81,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Delete comment is disabled unless userpage = loggedinuser or loggedinuser = commentuser
 </t>
@@ -96,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="501">
   <si>
     <t>Fanhub Model View Controller (MVC) Document</t>
   </si>
@@ -695,12 +691,15 @@
     <t>View</t>
   </si>
   <si>
+    <t>%complete</t>
+  </si>
+  <si>
+    <t>% complete</t>
+  </si>
+  <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>blah blah</t>
-  </si>
-  <si>
     <t>#btnFanToggle</t>
   </si>
   <si>
@@ -729,7 +728,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -740,7 +738,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">document</t>
     </r>
@@ -751,7 +748,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -762,7 +758,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.ready</t>
     </r>
@@ -773,7 +768,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -784,7 +778,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -795,7 +788,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -806,7 +798,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">()</t>
     </r>
@@ -817,7 +808,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -828,7 +818,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{</t>
     </r>
@@ -837,7 +826,7 @@
     <t>function clearForm(form) {</t>
   </si>
   <si>
-    <t>getUserProfile</t>
+    <t>divProfile</t>
   </si>
   <si>
     <t>#txtPostMessage (.w3-input)</t>
@@ -852,7 +841,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> pageUser </t>
     </r>
@@ -862,7 +850,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -872,7 +859,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> window.location.search.split</t>
     </r>
@@ -882,7 +868,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -892,7 +877,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"="</t>
     </r>
@@ -902,7 +886,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)[</t>
     </r>
@@ -912,7 +895,6 @@
         <color rgb="FF9B5F9B"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -922,7 +904,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">];</t>
     </r>
@@ -941,7 +922,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> getCurrentUser</t>
     </r>
@@ -952,7 +932,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -963,7 +942,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">callback</t>
     </r>
@@ -974,13 +952,12 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>.lblUserName</t>
+    <t>getProfileData</t>
   </si>
   <si>
     <t>#inputImage (.w3-input)</t>
@@ -998,7 +975,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> numfields </t>
     </r>
@@ -1008,7 +984,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -1018,7 +993,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> fields.length</t>
     </r>
@@ -1028,7 +1002,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1038,7 +1011,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -1053,7 +1025,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1063,7 +1034,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getCurrentUser.php"</t>
     </r>
@@ -1073,7 +1043,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1083,7 +1052,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1093,7 +1061,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1103,7 +1070,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1113,7 +1079,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1123,13 +1088,12 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>#imgUserImage</t>
+    <t>lblName</t>
   </si>
   <si>
     <t>#btnUploadImage</t>
@@ -1144,7 +1108,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1154,7 +1117,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">var</t>
     </r>
@@ -1164,7 +1126,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1174,7 +1135,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -1184,7 +1144,6 @@
         <color rgb="FF9B5F9B"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1194,7 +1153,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1204,7 +1162,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1214,7 +1171,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;</t>
     </r>
@@ -1224,7 +1180,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">numfields</t>
     </r>
@@ -1234,7 +1189,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1244,7 +1198,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> i</t>
     </r>
@@ -1254,7 +1207,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">++)</t>
     </r>
@@ -1264,7 +1216,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1274,7 +1225,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{</t>
     </r>
@@ -1283,7 +1233,7 @@
     <t>callback(data);})}</t>
   </si>
   <si>
-    <t>#lblDOB</t>
+    <t>imgProfileImage</t>
   </si>
   <si>
     <t>#btnSubmitPost</t>
@@ -1304,7 +1254,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[</t>
     </r>
@@ -1314,7 +1263,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">i</t>
     </r>
@@ -1324,7 +1272,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]</t>
     </r>
@@ -1334,7 +1281,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.value </t>
     </r>
@@ -1344,7 +1290,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -1354,7 +1299,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1364,7 +1308,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">""</t>
     </r>
@@ -1374,13 +1317,12 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;}</t>
     </r>
   </si>
   <si>
-    <t>#lblLocation</t>
+    <t>lblDOB</t>
   </si>
   <si>
     <t>currentUser = user;</t>
@@ -1389,10 +1331,10 @@
     <t>function getProfileData(user, callback){</t>
   </si>
   <si>
-    <t>#lblFanCount</t>
-  </si>
-  <si>
-    <t>if(currentUser != “”){</t>
+    <t>lblLocation</t>
+  </si>
+  <si>
+    <t>if(currentUser != ""){</t>
   </si>
   <si>
     <t>// if logged in</t>
@@ -1410,7 +1352,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1420,7 +1361,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getProfileData.php?user="+user</t>
     </r>
@@ -1430,7 +1370,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1440,7 +1379,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1450,7 +1388,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1460,7 +1397,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1470,7 +1406,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1480,13 +1415,12 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>#lblPostCount</t>
+    <t>lblFanCount</t>
   </si>
   <si>
     <t>All Posts (#btnAllPosts)</t>
@@ -1504,13 +1438,13 @@
     <t>for(key in record){</t>
   </si>
   <si>
-    <t>#lblFanOfCount</t>
+    <t>lblPostCount</t>
   </si>
   <si>
     <t>#tmplPost</t>
   </si>
   <si>
-    <t>$(“#btnEditProfile”).show();</t>
+    <t>$("#btnEditProfile").show();</t>
   </si>
   <si>
     <t>// show #btnEditProfile</t>
@@ -1519,13 +1453,16 @@
     <t>if(startswith(key, “lbl”)){</t>
   </si>
   <si>
+    <t>lblFanOfCount</t>
+  </si>
+  <si>
     <t>getAllPosts</t>
   </si>
   <si>
     <t>getUsersPosts</t>
   </si>
   <si>
-    <t>$(“#frmPost”).show();}</t>
+    <t>$("#frmPost").show();}</t>
   </si>
   <si>
     <t>// show #frmPost</t>
@@ -1537,7 +1474,10 @@
     <t>function getFanList(user, callback){</t>
   </si>
   <si>
-    <t>&lt;&lt;#lstAllPosts</t>
+    <t>btnEditProfile</t>
+  </si>
+  <si>
+    <t>&lt;&lt;lstAllPosts</t>
   </si>
   <si>
     <t>&lt;&lt;#lstUsersPosts</t>
@@ -1561,7 +1501,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1571,7 +1510,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getFanList.php?user="+user</t>
     </r>
@@ -1581,7 +1519,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1591,7 +1528,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1601,7 +1537,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1611,7 +1546,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1621,7 +1555,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1631,19 +1564,18 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>#tmplFan</t>
+    <t>lblText</t>
   </si>
   <si>
     <t>.lblMessage</t>
   </si>
   <si>
-    <t>$(“#btnFanToggle”).show()}</t>
+    <t>$("#btnFanToggle").show()}</t>
   </si>
   <si>
     <t>// show #btnFanToggle</t>
@@ -1652,34 +1584,43 @@
     <t>div.find(key).attr(“src”, record[key]);)}</t>
   </si>
   <si>
+    <t>imgPostImage</t>
+  </si>
+  <si>
+    <t>.imgPost</t>
+  </si>
+  <si>
+    <t>} else {</t>
+  </si>
+  <si>
+    <t>// if not logged in</t>
+  </si>
+  <si>
+    <t>tmplFan</t>
+  </si>
+  <si>
+    <t>imgUserImage</t>
+  </si>
+  <si>
+    <t>.imgUser</t>
+  </si>
+  <si>
+    <t>$("#btnLoginLogout").html("Log In");}});</t>
+  </si>
+  <si>
+    <t>// set #btnLoginLogout to Login</t>
+  </si>
+  <si>
+    <t>function cloneDiv(template, record){</t>
+  </si>
+  <si>
+    <t>function getFanOfList(user, callback){</t>
+  </si>
+  <si>
     <t>getFanList</t>
   </si>
   <si>
-    <t>.imgPost</t>
-  </si>
-  <si>
-    <t>// if not logged in</t>
-  </si>
-  <si>
-    <t>&lt;&lt;#lstFans</t>
-  </si>
-  <si>
-    <t>.imgUser</t>
-  </si>
-  <si>
-    <t>$(“#btnLoginLogout”).html(“Log In”);}</t>
-  </si>
-  <si>
-    <t>// set #btnLoginLogout to Login</t>
-  </si>
-  <si>
-    <t>function cloneDiv(template, record){</t>
-  </si>
-  <si>
-    <t>function getFanOfList(user, callback){</t>
-  </si>
-  <si>
-    <t>.imgFanProfile</t>
+    <t>btnShare</t>
   </si>
   <si>
     <t>.btnShare</t>
@@ -1697,7 +1638,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1707,7 +1647,6 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"./controllers/getFanOfList.php?user="+user</t>
     </r>
@@ -1717,7 +1656,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1727,7 +1665,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1737,7 +1674,6 @@
         <color rgb="FF4F76AC"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">function</t>
     </r>
@@ -1747,7 +1683,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1757,7 +1692,6 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">data</t>
     </r>
@@ -1767,65 +1701,392 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){</t>
     </r>
   </si>
   <si>
-    <t>.lblFanName&gt;&gt;</t>
+    <t>&lt;&lt;lstFans</t>
+  </si>
+  <si>
+    <t>lblShareCount</t>
   </si>
   <si>
     <t>.lblShareCount</t>
   </si>
   <si>
+    <t>// Get profile data</t>
+  </si>
+  <si>
+    <t>populateDiv(newDiv, record);}</t>
+  </si>
+  <si>
+    <t>fanimage</t>
+  </si>
+  <si>
+    <t>btnComment</t>
+  </si>
+  <si>
+    <t>.btnComment</t>
+  </si>
+  <si>
+    <t>// if you can't find profile data for userpage</t>
+  </si>
+  <si>
+    <t>fanname&gt;&gt;</t>
+  </si>
+  <si>
+    <t>lblCommentCount</t>
+  </si>
+  <si>
+    <t>.lblCommentCount</t>
+  </si>
+  <si>
+    <t>// redirect to welcome page</t>
+  </si>
+  <si>
+    <t>function increment(e){</t>
+  </si>
+  <si>
+    <t>function getAllPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>btnLikePost</t>
+  </si>
+  <si>
+    <t>.btnLikePost</t>
+  </si>
+  <si>
+    <t>// Populate profile div with profile data</t>
+  </si>
+  <si>
+    <t>e.html(e.html++);}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getAllPosts.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF4F76AC"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t>lblLikeCount</t>
+  </si>
+  <si>
+    <t>.lblLikeCount</t>
+  </si>
+  <si>
+    <t>btnDeletePost</t>
+  </si>
+  <si>
+    <t>.lstComments</t>
+  </si>
+  <si>
+    <t>// Get list of fans</t>
+  </si>
+  <si>
+    <t>function populateList(list, data, template, callback){</t>
+  </si>
+  <si>
+    <t>getFanOfList</t>
+  </si>
+  <si>
+    <t>&lt;&lt;lstComments</t>
+  </si>
+  <si>
+    <t>.btnDelete&gt;&gt;</t>
+  </si>
+  <si>
     <t>getProfileData(userpage, function(profileData){</t>
   </si>
   <si>
-    <t>// Get profile data</t>
-  </si>
-  <si>
-    <t>populateDiv(newDiv, record);}</t>
-  </si>
-  <si>
-    <t>.btnComment</t>
+    <t>var posts = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>function getUsersPosts(user, callback){</t>
+  </si>
+  <si>
+    <t>&lt;&lt;lstFanOf</t>
   </si>
   <si>
     <t>if(profileData == undefined){</t>
   </si>
   <si>
-    <t>// if you can't find profile data for userpage</t>
-  </si>
-  <si>
-    <t>.lblCommentCount</t>
+    <t>// Populate fan list</t>
+  </si>
+  <si>
+    <t>for(var i = 0; i &lt; posts.length; i++){</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$.get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF823125"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"./controllers/getUsersPost.php?user="+user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF4F76AC"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF1E7C70"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
   </si>
   <si>
     <t>window.location.replace(“welcome.html”)}</t>
   </si>
   <si>
-    <t>// redirect to welcome page</t>
-  </si>
-  <si>
-    <t>function increment(e){</t>
-  </si>
-  <si>
-    <t>function getAllPosts(user, callback){</t>
-  </si>
-  <si>
-    <t>.btnLikePost</t>
+    <t>newRecord = posts[i];</t>
   </si>
   <si>
     <t>populateDiv($(“#divProfile”), profiledata)})</t>
   </si>
   <si>
-    <t>// Populate profile div with profile data</t>
-  </si>
-  <si>
-    <t>e.html(e.html++);}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$.get</t>
+    <t>// Get fan of list</t>
+  </si>
+  <si>
+    <t>newDiv = cloneDiv(template, newRecord);</t>
+  </si>
+  <si>
+    <t>Commentform (#mdlComment)</t>
+  </si>
+  <si>
+    <t>list.append(newDiv);</t>
+  </si>
+  <si>
+    <t>#txtCommentMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>getFanList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>// Populate fan of list</t>
+  </si>
+  <si>
+    <t>if(callback != undefined){</t>
+  </si>
+  <si>
+    <t>#btnSubmitComment</t>
+  </si>
+  <si>
+    <t>var fanlist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>callback(newDiv)}}}</t>
+  </si>
+  <si>
+    <t>populateList($(“#lstFans”), fanlist, $(“#tmplFan”));})</t>
+  </si>
+  <si>
+    <t>// Get all posts</t>
+  </si>
+  <si>
+    <t>Shareform (#mdlShare)</t>
+  </si>
+  <si>
+    <t>// Populate all posts list</t>
+  </si>
+  <si>
+    <t>#txtShareMessage (.w3-input)</t>
+  </si>
+  <si>
+    <t>getFanOfList(userpage, function(fanData){</t>
+  </si>
+  <si>
+    <t>#btnSubmitShare</t>
+  </si>
+  <si>
+    <t>var fanoflist = JSON.parse(fanData);</t>
+  </si>
+  <si>
+    <t>// Get users posts</t>
+  </si>
+  <si>
+    <t>populateList($(“#lstFanOf”), fanoflist, $(“#tmplFan”))})</t>
+  </si>
+  <si>
+    <t>// Populate users posts list</t>
+  </si>
+  <si>
+    <t>getAllPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>populatePostList($(“#lstAllPosts”), data);})</t>
+  </si>
+  <si>
+    <t>// Submit new post</t>
+  </si>
+  <si>
+    <t>getUsersPosts(userpage, function(data) {</t>
+  </si>
+  <si>
+    <t>// Add post to database</t>
+  </si>
+  <si>
+    <t>populatePostList($(“#lstAllPosts”), data);})})</t>
+  </si>
+  <si>
+    <t>// Clear post form</t>
+  </si>
+  <si>
+    <t>// Add post to timeline</t>
+  </si>
+  <si>
+    <t>$(“#btnSubmitPost”).click(function() {</t>
+  </si>
+  <si>
+    <t>var fields = form2json(“#frmPost”);</t>
+  </si>
+  <si>
+    <t>putPost(fields, function(data){</t>
+  </si>
+  <si>
+    <t>// Submit new comment</t>
+  </si>
+  <si>
+    <t>var newRecord = JSON.parse(data);</t>
+  </si>
+  <si>
+    <t>if(newRecord[“image”] != “”){</t>
+  </si>
+  <si>
+    <t>//  Add comment to database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uploadFile</t>
     </r>
     <r>
       <rPr>
@@ -1833,7 +2094,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1843,9 +2103,8 @@
         <color rgb="FF823125"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"./controllers/getAllPosts.php?user="+user</t>
+      </rPr>
+      <t xml:space="preserve">"#imageupload"</t>
     </r>
     <r>
       <rPr>
@@ -1853,7 +2112,6 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -1863,19 +2121,8 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
+      </rPr>
+      <t xml:space="preserve"> newRecord[“image”]</t>
     </r>
     <r>
       <rPr>
@@ -1883,381 +2130,84 @@
         <color rgb="FF1E7C70"/>
         <rFont val="Consolas"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">){</t>
-    </r>
-  </si>
-  <si>
-    <t>getFanOfList</t>
-  </si>
-  <si>
-    <t>.lblLikeCount</t>
-  </si>
-  <si>
-    <t>&lt;&lt;#lstFanOf</t>
-  </si>
-  <si>
-    <t>.lstComments</t>
-  </si>
-  <si>
-    <t>getFanList(userpage, function(fanData){</t>
-  </si>
-  <si>
-    <t>// Get list of fans</t>
-  </si>
-  <si>
-    <t>function populateList(list, data, template, callback){</t>
-  </si>
-  <si>
-    <t>.btnDelete&gt;&gt;</t>
-  </si>
-  <si>
-    <t>var fanlist = JSON.parse(fanData);</t>
-  </si>
-  <si>
-    <t>var posts = JSON.parse(data);</t>
-  </si>
-  <si>
-    <t>function getUsersPosts(user, callback){</t>
-  </si>
-  <si>
-    <t>populateList($(“#lstFans”), fanlist, $(“#tmplFan”));})</t>
-  </si>
-  <si>
-    <t>// Populate fan list</t>
-  </si>
-  <si>
-    <t>for(var i = 0; i &lt; posts.length; i++){</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$.get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF823125"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"./controllers/getUsersPost.php?user="+user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF4F76AC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">){</t>
-    </r>
-  </si>
-  <si>
-    <t>newRecord = posts[i];</t>
-  </si>
-  <si>
-    <t>Commentform (#mdlComment)</t>
-  </si>
-  <si>
-    <t>getFanOfList(userpage, function(fanData){</t>
-  </si>
-  <si>
-    <t>// Get fan of list</t>
-  </si>
-  <si>
-    <t>newDiv = cloneDiv(template, newRecord);</t>
-  </si>
-  <si>
-    <t>#txtCommentMessage (.w3-input)</t>
-  </si>
-  <si>
-    <t>var fanoflist = JSON.parse(fanData);</t>
-  </si>
-  <si>
-    <t>list.append(newDiv);</t>
-  </si>
-  <si>
-    <t>#btnSubmitComment</t>
-  </si>
-  <si>
-    <t>populateList($(“#lstFanOf”), fanoflist, $(“#tmplFan”))})</t>
-  </si>
-  <si>
-    <t>// Populate fan of list</t>
-  </si>
-  <si>
-    <t>if(callback != undefined){</t>
-  </si>
-  <si>
-    <t>callback(newDiv)}}}</t>
-  </si>
-  <si>
-    <t>Shareform (#mdlShare)</t>
-  </si>
-  <si>
-    <t>getAllPosts(userpage, function(data) {</t>
-  </si>
-  <si>
-    <t>// Get all posts</t>
-  </si>
-  <si>
-    <t>#txtShareMessage (.w3-input)</t>
-  </si>
-  <si>
-    <t>populatePostList($(“#lstAllPosts”), data);})</t>
-  </si>
-  <si>
-    <t>// Populate all posts list</t>
-  </si>
-  <si>
-    <t>#btnSubmitShare</t>
-  </si>
-  <si>
-    <t>getUsersPosts(userpage, function(data) {</t>
-  </si>
-  <si>
-    <t>// Get users posts</t>
-  </si>
-  <si>
-    <t>populatePostList($(“#lstAllPosts”), data);})})</t>
-  </si>
-  <si>
-    <t>// Populate users posts list</t>
-  </si>
-  <si>
-    <t>$(“#btnSubmitPost”).click(function() {</t>
-  </si>
-  <si>
-    <t>// Submit new post</t>
-  </si>
-  <si>
-    <t>var fields = form2json(“#frmPost”);</t>
-  </si>
-  <si>
-    <t>putPost(fields, function(data){</t>
-  </si>
-  <si>
-    <t>// Add post to database</t>
-  </si>
-  <si>
-    <t>var newRecord = JSON.parse(data);</t>
-  </si>
-  <si>
-    <t>// Clear post form</t>
-  </si>
-  <si>
-    <t>if(newRecord[“image”] != “”){</t>
-  </si>
-  <si>
-    <t>// Add post to timeline</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uploadFile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF823125"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"#imageupload"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> newRecord[“image”]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF1E7C70"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)};</t>
     </r>
   </si>
   <si>
+    <t>// Clear comment modal</t>
+  </si>
+  <si>
     <t>clearForm(“#frmPost”);</t>
   </si>
   <si>
+    <t>// Increment comment count</t>
+  </si>
+  <si>
     <t>newPost = cloneDiv($(“#tmplPost”), newRecord);</t>
   </si>
   <si>
+    <t>// Add comment to timeline</t>
+  </si>
+  <si>
     <t>$(“#lstAllPosts”).prepend(newPost);</t>
   </si>
   <si>
-    <t>// Submit new comment</t>
+    <t>// Close comment modal</t>
   </si>
   <si>
     <t>$(“#lstUsersPost”).prepend(newPost) })</t>
   </si>
   <si>
-    <t>//  Add comment to database</t>
+    <t>// Submit new share</t>
   </si>
   <si>
     <t>$(“#btnSubmitComment”).click(function() {</t>
   </si>
   <si>
-    <t>// Clear comment modal</t>
-  </si>
-  <si>
     <t>var fields = form2json(“#mdlComment”);</t>
   </si>
   <si>
-    <t>// Increment comment count</t>
+    <t>// Add share to database</t>
   </si>
   <si>
     <t>putComment(fields, function(newComment){</t>
   </si>
   <si>
-    <t>// Add comment to timeline</t>
+    <t>// Clear share modal</t>
   </si>
   <si>
     <t>clearForm(“#mdlComment”);</t>
   </si>
   <si>
-    <t>// Close comment modal</t>
+    <t>// Increment share count</t>
   </si>
   <si>
     <t>increment(“.lblCommentCount”);</t>
   </si>
   <si>
+    <t>// Close share modal</t>
+  </si>
+  <si>
     <t>$(“.lstComments”).prepend(cloneDiv(#tmplComment,newComment));</t>
   </si>
   <si>
-    <t>// Submit new share</t>
-  </si>
-  <si>
     <t>$(“#mdlComment”).hide();}))</t>
   </si>
   <si>
-    <t>// Add share to database</t>
+    <t>// Show share modal</t>
   </si>
   <si>
     <t>$(“#btnSubmitShare”).click(function() {</t>
   </si>
   <si>
-    <t>// Clear share modal</t>
-  </si>
-  <si>
     <t>var fields = form2json(“#mdlShare”);</t>
   </si>
   <si>
-    <t>// Increment share count</t>
-  </si>
-  <si>
     <t>putShare(fields, function(res){</t>
   </si>
   <si>
-    <t>// Close share modal</t>
+    <t>// Show comment modal</t>
   </si>
   <si>
     <t>clearForm(“#mdlShare”);</t>
@@ -2269,7 +2219,10 @@
     <t>$(“#mdlShare”).hide() }))</t>
   </si>
   <si>
-    <t>// Show share modal</t>
+    <t>// Toggle like in database</t>
+  </si>
+  <si>
+    <t>// Toggle like on form</t>
   </si>
   <si>
     <t>$(“#btnShare”).click(function() {</t>
@@ -2278,7 +2231,7 @@
     <t>$(“#mdlShare”).show() })</t>
   </si>
   <si>
-    <t>// Show comment modal</t>
+    <t>// Show All Posts Tab</t>
   </si>
   <si>
     <t>$(“#btnComment”).click(function() {</t>
@@ -2287,34 +2240,37 @@
     <t>$(“#mdlComment”).show() })</t>
   </si>
   <si>
-    <t>// Toggle like in database</t>
-  </si>
-  <si>
-    <t>// Toggle like on form</t>
-  </si>
-  <si>
     <t>$(“#btnLikePost”).click(function() {</t>
   </si>
   <si>
     <t>toggleLikeTable(currentUser, postId, function(res){</t>
   </si>
   <si>
+    <t>// Show User's Posts Tab</t>
+  </si>
+  <si>
     <t>toggleLikeIcon(this);}))</t>
   </si>
   <si>
-    <t>// Show All Posts Tab</t>
-  </si>
-  <si>
     <t>$(“#btnAllPosts”).click(function() {</t>
   </si>
   <si>
+    <t>// Find current post</t>
+  </si>
+  <si>
     <t>$(“#lstAllPosts”).show();</t>
   </si>
   <si>
+    <t>// Find current post id</t>
+  </si>
+  <si>
     <t>$(“#lstUsersPosts”).hide()})</t>
   </si>
   <si>
-    <t>// Show User's Posts Tab</t>
+    <t>// Delete post from database</t>
+  </si>
+  <si>
+    <t>// Delete post from list</t>
   </si>
   <si>
     <t>$(“#lstAllPosts”).hide();</t>
@@ -2323,34 +2279,31 @@
     <t>$(“#lstUsersPosts”).show();})</t>
   </si>
   <si>
-    <t>// Find current post</t>
-  </si>
-  <si>
-    <t>// Find current post id</t>
+    <t>// For all posts</t>
   </si>
   <si>
     <t>$(“.btnDeletePost”).click(function() {</t>
   </si>
   <si>
-    <t>// Delete post from database</t>
-  </si>
-  <si>
     <t>currentPost = findParent(this, “#tmplPost”);</t>
   </si>
   <si>
-    <t>// Delete post from list</t>
+    <t>// Populate post widget</t>
   </si>
   <si>
     <t>postid = currentPost.find(“.postid”).val;</t>
   </si>
   <si>
+    <t>// Append post to post list</t>
+  </si>
+  <si>
     <t>deletePost(postid, function(){</t>
   </si>
   <si>
     <t>deleteDiv(currentPost)})})</t>
   </si>
   <si>
-    <t>// For all posts</t>
+    <t>// Set like icon</t>
   </si>
   <si>
     <t>function populatePostList(data){</t>
@@ -2359,21 +2312,12 @@
     <t>posts = JSON.parse(data);</t>
   </si>
   <si>
-    <t>// Populate post widget</t>
-  </si>
-  <si>
-    <t>// Append post to post list</t>
-  </si>
-  <si>
     <t>newRecord = JSON.parse(posts[i]);</t>
   </si>
   <si>
     <t>newPost = cloneDiv(“#tmplPost”, newRecord);</t>
   </si>
   <si>
-    <t>// Set like icon</t>
-  </si>
-  <si>
     <t>append(.lstAllPosts, newPost);</t>
   </si>
   <si>
@@ -2543,6 +2487,72 @@
   </si>
   <si>
     <t>Iterate subsequent step of the update cache process  if needed</t>
+  </si>
+  <si>
+    <t>Managed Artists</t>
+  </si>
+  <si>
+    <t>btnAddArtist</t>
+  </si>
+  <si>
+    <t>&lt;&lt;getArtists</t>
+  </si>
+  <si>
+    <t>Name (name)</t>
+  </si>
+  <si>
+    <t>(image)</t>
+  </si>
+  <si>
+    <t>Biography (biography)</t>
+  </si>
+  <si>
+    <t>btnEdit</t>
+  </si>
+  <si>
+    <t>btnDelete</t>
+  </si>
+  <si>
+    <t>btnAddAlbum (COUNT(albums))</t>
+  </si>
+  <si>
+    <t>&lt;&lt;getAlbums</t>
+  </si>
+  <si>
+    <t>Title (title)</t>
+  </si>
+  <si>
+    <t>Genres (genres)</t>
+  </si>
+  <si>
+    <t>btnAddTracks (COUNT(tracks))</t>
+  </si>
+  <si>
+    <t>&lt;&lt;getTracks</t>
+  </si>
+  <si>
+    <t>Number (number)</t>
+  </si>
+  <si>
+    <t>(audio)</t>
+  </si>
+  <si>
+    <t>btnDelete&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>mdlAddArtist</t>
+  </si>
+  <si>
+    <t>Name (valName)</t>
+  </si>
+  <si>
+    <t>Biography (valBiography)</t>
+  </si>
+  <si>
+    <t>(imgArtistImage)</t>
+  </si>
+  <si>
+    <t>btnSubmitArtist</t>
   </si>
 </sst>
 </file>
@@ -2554,12 +2564,11 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2580,21 +2589,18 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2602,7 +2608,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2610,48 +2615,41 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2659,7 +2657,6 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2667,7 +2664,6 @@
       <color rgb="FF1E7C70"/>
       <name val="Consolas"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2675,85 +2671,12 @@
       <color rgb="FF4F76AC"/>
       <name val="Consolas"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF4F76AC"/>
       <name val="Consolas"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF1E7C70"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF823125"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF9B5F9B"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -2774,19 +2697,60 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF9B5F9B"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2905,7 +2869,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3074,19 +3038,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3098,15 +3062,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3114,11 +3070,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3206,8 +3162,8 @@
   </sheetPr>
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6375,10 +6331,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6388,13 +6344,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.9387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.1683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="65.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="63.9387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.5255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.1683673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,8 +6360,14 @@
       <c r="D1" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="E1" s="0" t="s">
         <v>199</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,323 +6375,366 @@
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="D3" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="37" t="s">
-        <v>203</v>
-      </c>
       <c r="J4" s="37" t="s">
         <v>204</v>
       </c>
       <c r="L4" s="37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="37"/>
       <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="G5" s="37"/>
+      <c r="J5" s="38" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+      <c r="L5" s="37" t="s">
         <v>209</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="8" t="s">
+      <c r="N6" s="40" t="s">
         <v>214</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="G8" s="43"/>
+      <c r="L8" s="39" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+      <c r="N8" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="42" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="G9" s="43"/>
+      <c r="J9" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="K9" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="L10" s="45" t="s">
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="8" t="s">
+      <c r="L10" s="39"/>
+      <c r="N10" s="46" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="G11" s="37"/>
+      <c r="J11" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="K11" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="37" t="s">
         <v>235</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
-      <c r="D12" s="1" t="s">
-        <v>236</v>
+      <c r="D12" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>222</v>
+      <c r="L12" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="42" t="s">
+      <c r="D13" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="0" t="s">
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="K13" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="17"/>
       <c r="C14" s="2"/>
-      <c r="F14" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="42" t="s">
+      <c r="D14" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="K14" s="0" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="D15" s="9" t="s">
-        <v>90</v>
+      <c r="D15" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="J15" s="0" t="s">
         <v>258</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="D16" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>222</v>
+        <v>264</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="D17" s="42" t="s">
-        <v>264</v>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="L17" s="43"/>
+        <v>268</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="0" t="s">
-        <v>273</v>
+      <c r="D19" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,626 +6742,654 @@
       <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>222</v>
+        <v>284</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="17"/>
       <c r="C21" s="2"/>
+      <c r="D21" s="0" t="s">
+        <v>288</v>
+      </c>
       <c r="F21" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="L21" s="43"/>
+        <v>290</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="17"/>
       <c r="C22" s="2"/>
+      <c r="D22" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="F22" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="17"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>294</v>
+      <c r="F23" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="K23" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="D24" s="42" t="s">
-        <v>295</v>
-      </c>
       <c r="F24" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="L24" s="43" t="s">
-        <v>222</v>
+        <v>303</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="L25" s="43"/>
+      <c r="D25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>307</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>309</v>
+        <v>316</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="8"/>
-      <c r="J28" s="42" t="s">
-        <v>310</v>
+      <c r="D28" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>320</v>
       </c>
       <c r="L28" s="43" t="s">
-        <v>222</v>
+        <v>321</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>313</v>
-      </c>
+      <c r="D29" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" s="37"/>
       <c r="J29" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>317</v>
+      <c r="D30" s="8"/>
+      <c r="F30" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="J31" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="37"/>
+      <c r="J33" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="J35" s="37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K44" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K56" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K64" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K71" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K85" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K89" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="37" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J97" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="49" t="s">
-        <v>367</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="0" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="49" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H81" s="0" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="0" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H84" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H85" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H86" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H87" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H88" s="0" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H90" s="37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H91" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H92" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H96" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H97" s="0" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="37" t="s">
-        <v>410</v>
+      <c r="J99" s="43" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="0" t="s">
-        <v>411</v>
+      <c r="J100" s="0" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H101" s="0" t="s">
-        <v>408</v>
+      <c r="J101" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="0" t="s">
-        <v>412</v>
+      <c r="J102" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J105" s="37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J107" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J108" s="0" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -7377,7 +7411,7 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7408,17 +7442,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,7 +7494,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,7 +7508,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,10 +7519,10 @@
         <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,7 +7530,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7538,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,7 +7552,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,7 +7566,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +7577,7 @@
         <v>62</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,14 +7585,14 @@
         <v>67</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="50" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -7576,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,7 +7624,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7618,7 +7652,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,11 +7664,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>429</v>
+      <c r="A24" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,7 +7676,7 @@
         <v>133</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>118</v>
@@ -7689,7 +7723,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7705,194 +7739,194 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
-        <v>433</v>
+      <c r="A3" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54" t="s">
-        <v>434</v>
+      <c r="A4" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52" t="s">
+        <v>449</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7904,4 +7938,169 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:C29"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>